--- a/500all/speech_level/speeches_CHRG-114hhrg96241.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96241.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412631</t>
   </si>
   <si>
-    <t>Garret Graves</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman.    I am honored that we have with us today a local artist and Harley rider who has joined us this morning. He also happens to be a justice of the Supreme Court, Justice John Weimer, who is a graduate of Nicholls State University and Louisiana State University Law School, the father of three great daughters; and, of course, his wife Penny. We are very much honored to have Justice Weimer here.    Justice, thank you very much for your efforts to raise the court for us today.    Justice Weimer. Thank you, Congressman.    Bonjour, and bienvenue. That is Cajun French for ``good day'' and ``welcome.''    My name is John Weimer. I serve on the court here, and on behalf of the Chief Justice and my fellow associate justices, we welcome you.    Over 200 years ago, one of the Founding Fathers of our Nation recognized the economic and strategic significance of Louisiana to the destiny of our Nation. Thomas Jefferson signed the Louisiana Purchase just over 200 years ago.    One who had become president recognized the economic and strategic significance of Louisiana to the destiny of our Nation. Andrew Jackson risked his life on the plains of Chalmette at the Battle of New Orleans.    What Jefferson and Jackson recognized over 200 years ago has been realized. Louisiana fuels this Nation's economy with oil and gas. Louisiana feeds this Nation with seafood, the crabs, shrimp, oysters, fish, crawfish, and I understand an occasional alligator harvested here in Louisiana.    Now, in the spirit of full disclosure, Congressman Graves and I have a relationship. Our nephew, David Clavell, serves on his staff, and in south Louisiana, that is considered a relationship. David was involved in ensuring that we were here today, and I commend him for his efforts in that respect.    We are very pleased to have you in this historic venue, in this historic city, in our state of Louisiana. Again, bienvenue and merci beaucoup.</t>
   </si>
   <si>
@@ -64,51 +61,30 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Vitter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Senator Vitter. Thank you very much, Chairman Bishop and members of this committee, for being here--welcome to Louisiana--and for holding this important hearing on the impacts of Federal policies on energy production and economic growth in the Gulf. And a special thanks to Congressmen Fleming and Graves for inviting me here and hosting me here.    Mr. Chairman, in the spirit of your earlier comments, just for the record, don't drink from the water fountains on the Senate side. I try to maintain a strong, vibrant House personality. So, in that spirit, I would love to join the committee after our testimony, but unfortunately I have to go immediately to the airport to return for votes.    It has been nearly 5\\1/2\\ years since the BP disaster devastated the Gulf region. Beyond the economic and environmental consequences--which were major, and of course we will talk about those--I want to begin by acknowledging the human tragedy and the loss of 11 fine men who were working on the rig: specifically Jason Anderson, 35, of Midfield, Texas; Aaron Dale ``Bubba'' Burkeen, 37, of Philadelphia, Mississippi; Donald Clark, 49, of Newellton, Louisiana; Stephen Ray Curtis, 40, of Georgetown, Louisiana; Gordon Jones, 28, of Baton Rouge, Louisiana; Roy Wyatt Kemp, 27, of Jonesville, Louisiana; Karl Dale Kleppinger, Jr., 38, of Natchez, Mississippi; Keith Blair Manuel, 56, of Gonzales, Louisiana; Dewey Revette, 48, of State Line, Mississippi; Shane Roshto, 22, of Liberty, Mississippi; and Adam Weise, 24, of Yorktown, Texas. I think it is very important to acknowledge that horrible human loss and remember them, and their families, in our prayers.    For 3 months after that horrendous explosion, more than 200 million gallons of crude oil spilled into the Gulf of Mexico, resulting in billions of dollars of economic and environmental damages that the Gulf region is still recovering from.    But, Mr. Chairman, there was additional great loss, and that additional great loss was completely avoidable. That came from the Obama administration's short-sighted and knee-jerk reaction, particularly in the way they imposed a 6-month drilling moratorium, and after that a de facto moratorium or ``permatorium'' that only compounded and multiplied the devastation of the spill.    That is important to note because I think that is the continuing context that some of these overly onerous regulations are part of. It is part of a devastating pattern. This initial moratorium was particularly noteworthy because President Obama's White House put out statements saying, suggesting that the panel of experts they immediately empaneled after the spill recommended the moratorium.    That was a lie, a flat-out lie, and the experts eventually said that and made that clear. So the Administration just used that to justify a needless moratorium and all of the economic costs that it brought with it.    In the years since, I have worked with many others to ensure that this kind of tragedy and subsequent economic loss never happens again. Certainly as a state and a Nation, we need a clear and a strong regulatory scheme that promotes stringent safety standards while allowing the industry to thrive and do its business. While many important reforms have been made, there is still important work to be done.    Louisiana's offshore oil and gas development isn't just one of the state's largest economic drivers; it is a way of life for so many, providing careers and livelihoods for so many in the region. The industry has operated harmoniously alongside other critical offshore and coastal industries, like commercial and recreational fishing and tourism.    While the recent energy boom of the last few years in the United States has helped Louisiana recover from President Obama's drilling moratorium with a dramatic dip in price, I am particularly concerned now about the continuing regulatory avalanche coming from the Obama administration aimed at oil and gas.    I know that this committee and others are examining the Department of the Interior's proposed Well Control Rule, and I encourage those determined efforts. Some stakeholders have conveyed to me that that proposal could have substantial economic impacts throughout the offshore oil and gas supply chain, which our state and region cannot afford. So, we must get to the bottom of that.    President Obama's attack on the oil and gas industry is not restricted to offshore exploration and development. There are a myriad of regulations coming our way that will have disastrous effects on onshore oil and gas businesses, such as the recently proposed methane rules for upstream oil and gas operations and the pending proposal to reduce the standard for ground-level ozone. These proposals, and many others that this and other committees have looked at, are likely to impose dramatic new economic burdens on the industry, which has been one of the few bright spots in the economy under President Obama.    So again, Mr. Chairman, I think the key point is that this is part of a pattern. It is a pattern we saw starting with the moratorium which was based on lies out of the White House about the recommendations of the panel of experts. It is a pattern that includes many, many regulatory overreaches, significant new burdens being placed on the economy with little or no positive health, safety, or environmental impact.    Protecting the health of the oil and gas industry is critical for all of us, for Louisiana and for the Nation. So, Mr. Chairman, thank you for this opportunity to testify and for this committee coming to the Gulf, coming to Louisiana as part of that important effort.</t>
   </si>
   <si>
-    <t>Cassidy</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Senator Cassidy. Mr. Bishop, thank you for your testimony, which I found excellent.    Representative Smith, I am glad to see you survived your gator hunt.    [Laughter.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Senator Cassidy. I hope it was productive.    I thank you all for being here and for holding this hearing today, bringing greater attention to the energy production and its economic impact along the Gulf Coast.    The energy activities in the coastal Gulf states and the adjacent offshore waters have produced billions of barrels of oil and trillions of cubic feet of natural gas. They have been an important contributor to the domestic energy production which is critical for our country's energy independence and security. Every barrel of oil and cubic foot of natural gas produced in the Gulf of Mexico eliminates the need for energy from foreign sources.    Unfortunately, the actions and policy of this Administration are counter-productive, literally. For example, one thing that is of particular importance to us in Louisiana is the Administration's proposal to redirect coastal restoration funds, or GOMESA funds, that are scheduled to come to Louisiana beginning in 2017. A little ironically, a few weeks ago President Obama visited New Orleans to commemorate the region's rebirth on the 10th anniversary of Hurricanes Katrina and Rita. Yet, the sustainability of Louisiana's recovery is being placed in jeopardy by the President's Fiscal Year 2016 budget proposal. This proposal would redirect revenue derived from the energy production off Louisiana's coast toward unrelated projects. Louisiana is relying upon this revenue because, by our state constitution, it will be used to restore Louisiana wetlands.    Now, just to put this in perspective, Louisiana is experiencing unparalleled land loss due to Federal engineering decisions made nearly a century ago that have channeled the lower Mississippi River system for the benefit of the rest of the Nation. Louisiana's 2,300 square miles of land loss is largely attributed to this channelization, which was abetted by the placement of levies along the river system, and this has converted a once-growing delta plain to the greatest source of wetlands loss in our history.    Louisiana is counting on the revenues derived from offshore energy production to fund a portion of the projects necessary to restore our coast. Close to 18 percent of Louisiana's oil production and about 24 percent of its natural gas production originates, is transported through, or is processed in Louisiana's coastal wetlands. This is important not just for us but, as this shows, also for the rest of the Nation, and Congressman Graves is the expert on this.    Over 500 tons of water-borne cargo passes through Louisiana's system of deep draft ports and navigational channels each year. If the present land loss rates continue, more than 155 miles of waterways and several ports will be exposed to open water within 50 years. This is important not just for Louisiana, but for all those farmers in the Mississippi Valley system who rely upon these ports to send their products to international markets.    Now, related to this, Louisiana depends upon the revenue from production in the Gulf of Mexico, as does the Nation, to restore our wetlands. A second way the Obama administration's policies negatively affect this revenue stream is by locking up the Outer Continental Shelf's acreage which could be leased. Under this Administration, as you noted, Mr. Chairman, less than 2 percent of the 1.71 billion Federal Outer Continental Shelf acreage is under lease. Over 63 million acres in the Gulf of Mexico alone remain locked up. This lost opportunity results in fewer jobs, less government revenue, and a greater reliance upon foreign sources of oil.    If the draft proposed plan for offshore production is finalized in 2016, the Obama administration will have effectively controlled a decade of offshore oil and gas lease planning. The draft 5-year plan for 2017 to 2022 lists 14 sales. As you noted, this is the lowest number of lease sales in the 42-year history of the planning process.    Now, the second issue is supply constraints or access. Despite the Obama administration's policies, according to the Energy Information Administration, in the short term the Gulf of Mexico is expected to defy the overall trend of decreased production domestically because of lower oil prices, et cetera, and will continue to produce oil.    However, these offshore fields require both surface and subsea production equipment, and if the low oil price persists and operators cannot develop unique ways to decrease the capital required for these new projects and/or improve recovery rates, production will slip, and that in turn will negatively impact both jobs, Federal revenue through lease sales, as well as the amount of revenue Louisiana has to rebuild its coastline.    This is exacerbated by the excess regulations that you noted and that Senator Vitter also noted. The estimates of the cost of these would be as much as $10-$30 million, in addition to the increased expenditures required under previously issued regulations. The industry estimates the 10-year cumulative cost of these rules to be approximately $32 billion.    In response to this problematic regulatory climate, I, along with Senator Vitter, drafted a bill that became Title 1 of the OPENS Act, legislation that was reported out of the Senate Energy and Natural Resources Committee last month. As from the title, the OPENS Act opens up more acreage for energy production offshore. For example, some would open up the Eastern Gulf of Mexico by redefining the Eastern Gulf moratoria of 2017.    In addition to expanding energy supply, according to a 2014 study, by 2035, Eastern Gulf offshore natural gas development would produce nearly 1 million barrels of oil equivalent per day, generating nearly 230,000 jobs, contributing over $18 billion per year to the U.S. economy, and generating $70 billion in cumulative government revenue.    So, to conclude, the rise in production in the Gulf of Mexico is occurring due to large reserves and production efficiencies that streamline operational drilling costs. Although the long lead time and significant capital investment required to drill somewhat insulates production activity from short-term price volatility, the Obama administration's offshore drilling plan and proposed regulations could erode the economic viability of future well production in the Gulf of Mexico.    We must provide a regulatory environment to produce offshore oil and gas in a safe, economical way, while allowing access to the large undiscovered, technically recoverable oil and gas revenues on the Federal lands offshore. It is critical that production continue to grow in the Gulf of Mexico to protect and sustain our energy independence and to create the good jobs with good benefits for which there are far too few in today's economy.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
-    <t>Leimkuhler</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Leimkuhler. Good morning. Chairman Bishop and members of the committee, thank you for inviting me to testify on behalf of LLOG Exploration Company. LLOG welcomes this opportunity to provide what we see as improvements to Federal policies on oil and gas activity in the Outer Continental Shelf.    LLOG is the largest privately-owned oil producer in the United States, headquartered in Covington, Louisiana. Our focus is the deepwater U.S. Gulf of Mexico, where we apply a targeted approach to subsea wells and floating production systems to safely and efficiently develop the Nation's deepwater oil and gas resources.    Unlike the major integrated oil and gas companies, our area of focus is limited. However, the level of expertise and capability we bring to those areas is state-of-the-art. There is additional information about our company in your addendum, but I would like to highlight two main points.    The first is safety. At LLOG, we, and especially myself personally, hold it as a core value. Priorities change, but values do not. In scope, we have 16 deepwater developments to date, with 8 fields currently in the OCS under development. We are a small company that does big things.    Depending upon where a subsea well is drilled in the Gulf of Mexico, anywhere from 9 to 11 permits or plan approvals are needed to move a prospect from leasing into production. These approvals come from BOEM, BSEE, and the EPA. In your slide pack is a simplified version of the process, which is shown on Slide 4. Within that regulatory protocol, I would like to highlight three areas where LLOG feels there are improvement opportunities, as well as other issues not addressed on the slide.    The first improvement area is the appropriate balance of prescriptive- versus performance-based regulations. In the past, the technical regulatory staff at the regulators had an appropriate degree of professional judgment that they could apply to approve permits and operations. Over time, that balance has moved to a more prescriptive approach. Of particular note, based on our analysis and review of the proposed Well Control Safety Rule, the application has become so prescriptive in the proposed rule, relative to well design and real-time monitoring, that it is likely to be counter-productive to safe operations. LLOG strongly encourages BSEE and BOEM to take a balanced approach to regulatory enforcement using prescriptive- as well as performance-based regulations, especially in those two areas. I would be more than happy to provide examples in the follow-up Q&amp;A.    Second is the exploration plan and well permit approval process. I have worked my entire career offshore in the Gulf of Mexico since 1987, and the technical professionals and regional management at the regulatory agencies that I have worked with over that time were and are consistently professional, capable, and dedicated. In my opinion, the Bureau just needs more of them. We are now 1 month away from the 5-year anniversary of the end of the moratorium, yet we continue to see our well-related permits and even exploration plans approved just in time. This is not due to a lack of effort by the staff but, in my opinion, an understaffed situation, despite the best efforts of district and regional management to recruit and retain good talent. I am encouraged that they appear to be taking advantage of the current downturn to add experienced staff, and that should be encouraged.    Third is the commingling process. LLOG strives to make all the wells we drill commercial by utilizing smart well technology to open up multiple zones in adjacent reservoirs within the same well. We have never drilled an expendable well. As long as Mother Nature cooperates and we find the reservoirs in the expected location and depth, we can file for a commingling permit in advance. However, zones often do not come in as expected and we need to file an initial commingling permit or modify an existing one.    With a rig on location costing $1 million a day in capital, we need to evaluate the ability and likelihood to obtain commingling permit approval in time, versus the impact of costly delays. Under such conditions, the added burden or risk of a regulatory delay has actually made some zones uneconomic to produce. This hinders the industry's ability to bring American energy to U.S. consumers and provide a robust supply of affordable, reliable energy.    Among the additional improvement opportunities are the impact of rigid application of the Jones Act to offshore facility installation, and the impact of obtaining Clean Air permits.    With respect to the Jones Act and the heavy-lift vessels required to install offshore facilities, LLOG encourages the U.S. Customs and Border Protection to adhere to the prior historical application of the law with respect to the use of heavy-lift vessels. LLOG feels application of the Jones Act to the heavy-lift vessels forces us to possibly transfer jobs overseas and away from U.S. Gulf Coast fabrication yards. On this issue, LLOG commends a letter sent by BBSE Director Brian Salerno to the U.S. Customs and Border Protection earlier this month supporting the industry position to return to the historical application of the Jones Act with respect to heavy-lift vessels used in offshore construction.    Regarding the air permits, the Clean Air Act compliance is incorporated into the exploration plan approval process, as required by BOEM, except for the Eastern Gulf of Mexico, where the EPA air permit protocol is quite different. The EPA permits take 12 to 18 months to secure and, in our view, relative to the BOEM protocol, adds operational complexity and delays with no actual benefit relative to Clean Air Act compliance. LLOG urges you to consider BOEM for the Clean Air Act compliance across the Gulf of Mexico.    Thank you for the opportunity to present the views of LLOG and myself on these issues. The safe, efficient production and use of our Nation's resources in the OCS continues to be critical for our Nation's energy, and I am happy to answer any questions the committee may have or raise additional issues beyond which I could cover in my 5 minutes.</t>
   </si>
   <si>
-    <t>Henderson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Henderson. Thank you. We continue to hear about reducing our dependence on foreign oil, but we cannot import clean air, water, food, and soil. The BP disaster of 2010 and decades of oil extraction has led to severe environmental, social, and political impacts.    To remind this committee of just a few, hundreds of millions of gallons of oil have leaked into the Gulf; the destruction of sensitive fish habitat like coral reefs; countless dead marine mammals and sea turtles; contaminated beaches and wildlife refuges; deployment of harmful dispersants; discharging of fracking chemicals; 27,000 abandoned, unmonitored, and possibly leaking wells; the devastation of communities and loss of cultures; shrimp with no eyes, fish with lesions and tumors; destroyed family businesses and devastated families; suicides; sick, dead, and dying cleanup workers; and a distrust of our government. In addition, regulatory capture and the hijacking of our democracy, not to mention that roughly 600 square miles of Louisiana's wetlands have been destroyed by the oil and gas industry, which is very much a threat to the existence of my hometown of New Orleans, and the very building that we sit in today.    In the fall of 2010, I filed my first official pollution incident report with the National Response Center (NRC) for an oil slick leaking out of a wellhead in a bay known for very productive and economically important oyster beds. To date, I have filed approximately 100 NRC reports for leaks, including offshore and onshore platforms, pipelines, wellheads, and tank batteries--most recently, on August 17, 2015, for a suspected ruptured gas pipeline in Lafourche Parish, and that same day a roughly 15-mile-long rainbow sheen well offshore.    There are very few people who do this kind of proactive monitoring work in this region, but the need is great. My reports to the NRC have led to numerous successful investigations by the U.S. Coast Guard, which in turn has led to mutual respect and trust between myself and the leaders of various sectors and their incident management personnel.    Since July of 2010, the NRC has recorded approximately 10,000 spills of crude oil, petrochemicals, and other contaminants into Gulf of Mexico waters.    The BP disaster highlighted the flawed process by which oil discharges are reported and cleaned up, and for which companies are held accountable. It revealed how the official channels of reporting and cleaning up oil pollution rely on the polluters themselves. Little information is made available to the public, and the information that is presented could be considered untrustworthy. These massive reporting gaps make it impossible to determine how much oil pollution is actually being released into the Gulf.    One particularly egregious example of underreporting involves the Taylor Energy leak. For over 10 years this chronic oil leak has been spewing oil into the Gulf waters every day, with no end in sight. The discharge began in 2004 when an undersea landslide caused by Hurricane Ivan damaged a Taylor platform and 28 wells. Our work monitoring the Taylor leak and a recent AP investigation published in April shed light on the underreported flow amount and led to revision of the estimates.    In the immediate aftermath of Hurricane Isaac in 2012, I, along with my partners at the Gulf Monitoring Consortium, took several monitoring trips and documented leaks. Our findings, from a review of NRC reports, indicated that there were 130 accidents resulting from the storm that were reported to the     Based on my experience in the Gulf region and my participation in the New Orleans area contingency plan meetings and exercises, I am greatly concerned that government and industry are not adequately prepared for a worst-case scenario. An ongoing blowout in the Gulf of Mexico hit by a Category 5 hurricane would cause the response to be put on hold, and we could very likely be hit by another hurricane shortly thereafter. This would be an environmentally chaotic situation that is not being planned for and that threatens our homeland security.    This committee should introduce and pass a Gulf of Mexico Regional Citizens' Advisory Council. Attached to my testimony is a draft bill that was attempted to be introduced in 2014. A Gulf of Mexico Regional Citizens' Advisory Council will enhance engagement, communication, collaboration, and trust among the Gulf oil industry, Federal and state governments, and citizen stakeholders potentially impacted by Gulf oil operations.    Five years after the BP disaster, attempts are being made to open up the Eastern Gulf of Mexico and the Mid-Atlantic. This should not happen. At the same time these attempts are being made, investigations by New Orleans-based WLTV have raised serious concerns that the new post-BP safety standards may not be taken seriously enough at existing Gulf operations.    The bottom line is that Congress needs to act. Congress needs to pass a Regional Citizens' Advisory Council. It can raise the liability limit for offshore drilling, and it needs to make the Federal Oil Spill Liability Trust Fund available for Federal agencies when incidents occur.    Congress must start taking our oil, air, and water seriously. It is our homeland security. Thank you.</t>
   </si>
   <si>
-    <t>Davis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Davis. Thank you, Chairman Bishop and committee members, for giving me the opportunity to share my comments.    RIG-CHEM was formed in 1980 as a small oilfield service company that supported the energy industry. In 1984, my father, at the age of 50, was forced into early retirement by the downturn in the industry, much like what we are facing today. With his $25,000 severance after 21 years of service with Schlumberger, he invested his and his family's future in RIG-CHEM. By doing so, my parents created an opportunity for their children with the hope that the company would grow and support our family for many years to come, which it has. The days of modest investment and hard work are not as easily come by. Times are different, and $25,000 will not afford the same opportunities that were possible in 1984.    Our company employees 16 people across Louisiana and Texas, with an average tenure of 16 years of company service. We are proud to say that the average annual income of our dedicated employees is $66,000 per year. We also provide company-paid health insurance, 401(k) and profit sharing, and have never laid anyone off despite the cyclical highs and lows of the energy industry.    Over the last 30 years, our company has weathered through tough times, business challenges, increased competition, industry fluctuation, hurricanes, a moratorium, the Great Crew Change, and now a terrifying revisit of the early 1980s with the decline in the price of oil. Many other small, family-owned companies face these same challenges, but today our battle is not just managing economic market fluctuations; we now also have the impending obstacles of continued tightening of government regulation. These regulations will limit opportunities and squeeze small businesses out of the market, out of business today.    Our daily focus is to remain competitive, safe, and efficient in a shrinking industry, where the ability as a small, diverse company that has to compete against the majors is becoming increasingly difficult. There was a time that oil and gas operators welcomed small business to help develop new technology and keep competition healthy. Since Macondo, the moratorium, slow recovery, government interference, and record low oil prices, the value of diverse business is becoming extinct as companies do what is necessary to survive the times.    Speaking on a local level, the community where RIG-CHEM is located, Terrebonne Parish in Louisiana, last February had the lowest unemployment rate, at 2.8 percent, in the country. This week we were advised that our parish has been added to a credit rating watch list due to the rising unemployment and reduced sales tax collections, which are down by 15 percent. These uncertain times are more reason to work closely on regulation to prevent this from becoming a grave reality for many energy municipalities.    My plea to you is to allow industry to work collaboratively with government to address the needs of safety and responsibility together. Let the experts in their respective fields guide the decisions that impact our energy future and ultimately energy independence. When regulations are mandated, require that these burdens that are being leveraged upon our Gulf of Mexico operators be the same for those we import from into the United States, to level the global playing field.    I am not a technical expert, but a business owner who is concerned about the impact that the proposed Well Control Rule will indirectly have on RIG-CHEM, our employees, and the many small companies like ours. Let us together protect our future. I stand behind the oil and gas operators and state that the proposed Well Containment Rule does not provide substantial improvements to safety or build on post-Macondo progress, will hinder offshore oil and gas development, will eliminate jobs and hurt our energy security in the future, and I advise that the rule be rewritten.    We cannot control OPEC or the forces of nature, but we can stop imposing more regulations that will drive us out of business. There was a saying back in the 1980s--``the last person to leave should turn off the lights.'' Folks, the lights are dimming, and we will have no one else to blame but government for refusing to work toward a reasonable solution.    Let's work together. Let's work to keep the lights on.    Thank you very much for your time.</t>
   </si>
   <si>
-    <t>Mason</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Dr. Mason. Good morning, Chairman Bishop and members of the committee. Thank you for the opportunity to testify on this very important topic.    Unfortunately, little has changed in the Gulf region since my July 2010 study on the economic costs of a moratorium to the Gulf region. That study predicted a roughly $2 billion slowdown in economic activity in the Gulf states following the 6-month drilling moratorium in May 2010.    While it is difficult to disentangle the effect of just the moratorium after the fact, real GDP from oil and gas extraction in the four Gulf states measured in that study fell by $16 billion in 2009-2010, and remains $11 billion below 2009 real GDP in 2011.    Not much has changed for Louisiana in recent years. In 2012-2013, Louisiana real GDP from oil and gas extraction fell 16 percent, and in 2013-2014, it fell another 6 percent. States with more onshore focus grew considerably in 2014, but even the states that did well in recent years can be expected to slow in 2015 due to persistent low oil prices.    Amidst this industry difficulty, the Department of the Interior's BSEE recently published new requirements and procedures related to blowout prevention systems and well control. In strict economic terms, those requirements pose new costs for the offshore oil and gas industry at a time when high-cost production is being pushed out of the industry.    It should come as no surprise, therefore, that a recent American Petroleum Institute study of the potential impact of the proposed rule concluded that, ``Under the new regulations, approximately 690 fewer wells are projected in the U.S. Gulf of Mexico between 2017 and 2030, a 26 percent decline in drilling activity.''    From a pure economic perspective, increased costs should result in lower supply. Regression results in my written testimony suggest, however, that production declines associated with additional regulation may be costlier if there already exists a significant regulatory burden.    The direct results of production declines are, inevitably, fewer jobs, decreased wages, and lower economic growth. These effects will exacerbate competitive pressures in higher education as students, whether studying oil and gas, alternative energy, or compliance, are left without job prospects, and university programs without funding. Those funding shortfalls hurt research into new energy sources. The majority of Louisiana State University's externally-funded energy research is not associated with fossil fuels, but renewables. Moreover, that energy research funding is nearly equal to the total budget provided to the relevant colleges by the state of Louisiana. That research money is plugged back into course development and student support for education and workforce training and related fields.    LSU offers a number of degree majors and minors that are relevant to energy issues. Estimates suggest that almost 3,000 LSU undergraduate and graduate students study in energy-related fields. But program enrollment alone may severely understate the importance of workforce development to students in our region.    For instance, even without a dedicated program, some 18 percent of LSU business school grads go on to work in the oil and gas and energy sectors. Moreover, the college reports that LSU business graduates boast the highest mid-career earnings among peer institutions largely due to that energy industry employment. As a result, the College of Business, like many other academic units at LSU, is launching a variety of programs to prepare students for the opportunities and challenges presented in today's energy sector.    LSU also provides energy-related workforce development in the form of worker safety, continuing education, and various energy specialization programs focused on fossil fuels, as well as renewables. As noted by Mr. Herbst initially, LSU's workforce development programs are a vital component of safety and efficiency in today's energy industry.    In summary, LSU is inextricably intertwined with the energy industry and the Gulf of Mexico. Higher production costs will reduce grant funding, class offerings, and student placements. Further declines in higher education in Louisiana and similar states will be unavoidable. And ironically, a chief casualty of the slowdown will be research into clean and efficient energy sources to replace fossil fuels. I respectfully ask the Members present to please think hard about these dynamics before layering new offshore regulations on Gulf energy production. Thank you.</t>
   </si>
   <si>
     <t>412275</t>
   </si>
   <si>
-    <t>John Fleming</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fleming. Thank you, Mr. Chairman.    I thank the panel for being here today.    Mr. Leimkuhler, I would like to ask you some questions. My personal background is that I am a physician from the private sector, but also I have been serving in Congress since 2009. I have observed that regulations, increased regulations, and more complicated or expensive regulations, don't necessarily translate to more safety.    So, what I would like to ask you about is this. In your testimony, you differentiated between performance-based regulations and prescriptive regulations. For example, real-time monitoring sounds like a good thing to have. But many of those who commented on the rule believe it will make operations less safe.    What do you have to say about that?</t>
   </si>
   <si>
@@ -151,9 +127,6 @@
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman.    Mr. Herbst, thank you for being here. I have a couple of questions for you. But first of all, I want to talk briefly about the macro perspective.    We have seen energy prices at record lows right now relative to previous performance, and obviously the cost of producing energy in the offshore is a substantial investment and one, as you noted, that is often determined in excess of a decade in advance of actual production.    When you combine what is going on right now--OPEC nations, led by Saudi Arabia, are continuing to flood the market. When you look at some of the other actions of this Administration, with regard to the Iran agreement, that is going to allow for hundreds of millions of barrels of additional oil to be put on the market.    I want to make note, Mr. Chairman, that I don't remember seeing a greenhouse gas evaluation by this Administration in regard to the Iran agreement, as was done with the Keystone Pipeline.    The point here is you are seeing extraordinary price pressures. We are seeing right now folks getting pink slips all over the Gulf of Mexico, and Senator Vitter and Senator Cassidy noted all the associated employment opportunities related to offshore oil and gas production. Importantly, I have heard the statistic over and over again that offshore energy production is the second-largest revenue stream for the U.S. Treasury outside of taxes, a big revenue stream for the U.S. Treasury. And as I recall, we are approaching nearly $200 billion in funds for the U.S. Treasury from offshore energy production, the majority, the far majority of which, you are well aware, is produced offshore the coast of Louisiana.    As Senator Cassidy noted, the implications of this are not limited to just taxpayers, not limited to the U.S. Treasury. The implications of this rule, if it continues to cause a reduction in offshore energy production--and I remind you, in 2009, 30 percent of all the domestic crude produced in the United States was produced in the Gulf of Mexico. Today, it is down to 17 percent. Historically, I believe it was 11 percent of all the domestic gas production was in the Gulf of Mexico. It is down to 5 percent today.    As Senator Cassidy noted, these revenue streams are actually coming back to the state of Louisiana to restore our coast, to help protect our environment, our ecological productivity here. This rule is going to prevent those investments in the environment. As Dr. Mason noted, in addition it will prevent our investment in higher education.    The first question I have for you is this. As I understand it, the offshore industry, on their own, voluntarily worked on over 100 changes, updates, and safety procedures since the Macondo disaster. Can you just rattle off about five of those for me?</t>
   </si>
   <si>
-    <t>Herbst</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Herbst. Again, it is a good question, and a big part of this rule is about adopting those changes that industry did move quickly on as far as making changes to API and----</t>
   </si>
   <si>
@@ -184,9 +157,6 @@
     <t>412610</t>
   </si>
   <si>
-    <t>Bruce Westerman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank you to the panel for the informative presentations today.    I am from Arkansas. We don't have much offshore exploration in Arkansas, but I am trying to get up to speed on this as much as possible. I have been reviewing the process, and I notice that BSEE has collaborative agreements with at least 12 other agencies through Memorandums of Understanding, Memorandums of Agreement, and interagency arrangements. It seems like a very cumbersome and complicated process in a lot of areas where regulation takes place on the industry.    Mr. Herbst, you said you were a chemical engineer and a professional engineer. I am also a professional engineer, so I understand a little bit about how technology works. Also, I know as a professional engineer, one of our foremost objectives is to protect the public safety, health, and welfare.    It has been interesting in committee meetings in DC when EPA comes in, who is one of your collaborators in the Federal agencies. They always talk about public health, safety, and welfare. Last week, we had a hearing on the Animus River chemical spill. Through the hearing it was pretty obvious that the EPA was very negligent of their responsibility in protecting the public health, safety, and welfare; and I believe had it been a private company that was as negligent as EPA was, that there would be a huge outcry over that.    When we look at this Well Control Rule, the blowout prevention regulations, they are very prescriptive. To my understanding, there is technology there that is not even proven yet, and these rules were developed by you guys. We heard testimony about how the industry has increased their safety requirements through API rules.    When I was in engineering school, they taught us that when you are writing specifications, you specify results and you don't get real descriptive in your specifications, because when you specify very descriptively, you are actually specifying the design of this equipment. It sounds like you are doing that on the blowout preventers. So with that, you take on the liability of the design.    So, is BSEE prepared to fully warrant or fully back up the blowout preventer designs that they are proposing in the well, and to take full liability for those in case they are put into place and they happen to fail or there are problems with them?</t>
   </si>
   <si>
@@ -208,9 +178,6 @@
     <t xml:space="preserve">    Mr. Leimkuhler. OK.    The Chairman. You are out of time. I am sorry. We will come back again here.    Mr. Smith, it is good to have you back with our committee. You are recognized now for some questions.</t>
   </si>
   <si>
-    <t>Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. It is a pleasure to be here. It is a pleasure to just be south of the river. I am up from just north of here, in southeastern Missouri. We are right along the Mississippi about 200 miles, so we just have to float down and we are right here.    I am very curious, Mr. Herbst, what is the projected compliance cost of the proposed rule?</t>
   </si>
   <si>
@@ -244,9 +211,6 @@
     <t xml:space="preserve">    Mr. Smith. OK. So right now, we are trying to decide if it is between $880 million or $32 billion in the cost.    I do want to point out to the agency that I would remind them to look at Justice Scalia's opinion in Michigan v. EPA, which was a Supreme Court case this June. In that decision, Justice Scalia was writing the opinion of the court, and it stated, ``The agency must consider cost, including, most importantly, cost of compliance, before describing whether regulation is appropriate and necessary.'' That is the supreme law of the land that was decided in the last week in June of this year, and I hope your agency can decide and understand whether it is $880 million or whether it is $32 billion and whether it is appropriate and necessary when you are looking at the offshore production just here in the Gulf of Mexico being roughly 17 percent, as what my colleague, Mr. Graves from Louisiana, was saying.    I have been here the last few days. We don't have offshore oil drilling in Missouri, but we are very glad that we have it here in the Gulf of Mexico, because it drastically affects the economy for the Nation, and it affects the economy for the world, for that matter. We need to make sure that we have a fair balance between the environment and safety and industry.    I can tell you just from a fishing perspective, being here over the weekend, I have not seen such a great production of fishing. Whenever you look at the No. 1 commercial fishing industry in the continental United States, right here next to the oil rigs, I would say environment and industry is going hand in hand. I would hope that your agency would promote that and not hinder that.    Thank you, Mr. Chairman.    The Chairman. Thank you.    Mr. Rice, good to have you here. You are recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Rice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rice. Thank you so much. It is my great honor to be here, Mr. Chairman. Thank you for having me.    Mr. Graves, thank you for having me.    I am not on this committee. I am from Myrtle Beach, South Carolina, which is a big tourism area, and we are considering opening the Atlantic offshore for drilling. My community is very concerned about it, which is why I am here, to learn a lot more.    Mr. Henderson, I want to start with you. Is it your position that no offshore drilling is safe? A really quick answer.</t>
   </si>
   <si>
@@ -659,9 +623,6 @@
   </si>
   <si>
     <t xml:space="preserve">    Ms. Davis. It makes it very difficult to plan anything. To the point we talked of earlier, with all these regulations, things that are changing the environment, and all the things that are happening with OPEC, a company like RIG-CHEM can't sustain for much longer. We will go away, and small business will be hurt.    To your point about OPEC, we don't know, we have no way to predict what is going to happen for the future. All I can do is tell my employees every day that we have to keep looking for new opportunities; but with more regulation, that will not happen.    The Chairman. I appreciate that. This area of discussion is so broad, we didn't have a whole lot of time to go into a lot of things. We didn't even go into the exporting ban. But it seems very obvious that OPEC has a unique strategy that they are using to see if they can drive our country into a particular pattern. What scares me is, I think they are successful right now, which is worrisome to me, especially for the potential this country has as far as energy production and the significance of affordable energy in the ability of the entire economy to go forward, as well as how it helps people in their daily lives. If we do not have affordable energy, we don't have a lifestyle that is worth living, and that becomes extremely significant.</t>
-  </si>
-  <si>
-    <t>Lukeheimer--Leimkuhler</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lukeheimer--Leimkuhler. I am sorry; I am dyslexic. Mr. Leimkuhler--I am not dyslexic, by the way. I just say that.    [Laughter.]    The Chairman. And I forgot the question. No, the same question.</t>
@@ -1075,11 +1036,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1101,11 +1060,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1125,13 +1082,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1151,13 +1106,11 @@
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1177,13 +1130,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1203,13 +1154,11 @@
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1229,13 +1178,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1255,13 +1202,11 @@
         <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1281,13 +1226,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1307,13 +1250,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1333,13 +1274,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1359,13 +1298,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>15</v>
-      </c>
-      <c r="G13" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1385,13 +1322,11 @@
         <v>10</v>
       </c>
       <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1411,13 +1346,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1437,13 +1370,11 @@
         <v>10</v>
       </c>
       <c r="F16" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1463,13 +1394,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
+        <v>22</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
         <v>29</v>
-      </c>
-      <c r="G17" t="s">
-        <v>30</v>
-      </c>
-      <c r="H17" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1489,13 +1418,11 @@
         <v>10</v>
       </c>
       <c r="F18" t="s">
-        <v>15</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1515,13 +1442,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G19" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1541,13 +1466,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1567,13 +1490,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>29</v>
-      </c>
-      <c r="G21" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1593,13 +1514,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1619,13 +1538,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1647,11 +1564,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1671,13 +1586,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1699,11 +1612,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1723,13 +1634,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>15</v>
-      </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1751,11 +1660,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1775,13 +1682,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>15</v>
-      </c>
-      <c r="G29" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1803,11 +1708,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1827,13 +1730,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>15</v>
-      </c>
-      <c r="G31" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1855,11 +1756,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1879,13 +1778,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>15</v>
-      </c>
-      <c r="G33" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1905,13 +1802,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1931,13 +1826,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>15</v>
-      </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1957,13 +1850,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1983,13 +1874,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2009,13 +1898,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>55</v>
-      </c>
-      <c r="G38" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2035,13 +1922,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>15</v>
-      </c>
-      <c r="G39" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2061,13 +1946,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>15</v>
-      </c>
-      <c r="G40" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2087,13 +1970,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>15</v>
-      </c>
-      <c r="G41" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2113,13 +1994,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2139,13 +2018,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2165,13 +2042,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G44" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2191,13 +2066,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2217,13 +2090,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>15</v>
-      </c>
-      <c r="G46" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2243,13 +2114,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2269,13 +2138,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>15</v>
-      </c>
-      <c r="G48" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2295,13 +2162,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2321,13 +2186,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2347,13 +2210,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>15</v>
-      </c>
-      <c r="G51" t="s">
+        <v>14</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
         <v>64</v>
-      </c>
-      <c r="H51" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2373,13 +2234,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2399,13 +2258,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>15</v>
-      </c>
-      <c r="G53" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2425,13 +2282,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2451,13 +2306,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>15</v>
-      </c>
-      <c r="G55" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2477,13 +2330,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2503,13 +2354,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>15</v>
-      </c>
-      <c r="G57" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2529,13 +2378,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2555,13 +2402,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2581,13 +2426,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2607,13 +2450,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2633,13 +2474,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2659,13 +2498,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2685,13 +2522,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>15</v>
-      </c>
-      <c r="G64" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2711,13 +2546,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2737,13 +2570,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>15</v>
-      </c>
-      <c r="G66" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2763,13 +2594,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2789,13 +2618,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2815,13 +2642,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2841,13 +2666,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>15</v>
-      </c>
-      <c r="G70" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2867,13 +2690,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>15</v>
-      </c>
-      <c r="G71" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2893,13 +2714,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2919,13 +2738,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>15</v>
-      </c>
-      <c r="G73" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2945,13 +2762,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>15</v>
-      </c>
-      <c r="G74" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2971,13 +2786,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>15</v>
-      </c>
-      <c r="G75" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2997,13 +2810,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>15</v>
-      </c>
-      <c r="G76" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3023,13 +2834,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>15</v>
-      </c>
-      <c r="G77" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3049,13 +2858,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3075,13 +2882,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>15</v>
-      </c>
-      <c r="G79" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3101,13 +2906,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>15</v>
-      </c>
-      <c r="G80" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3127,13 +2930,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>15</v>
-      </c>
-      <c r="G81" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3153,13 +2954,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>15</v>
-      </c>
-      <c r="G82" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3179,13 +2978,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>15</v>
-      </c>
-      <c r="G83" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3205,13 +3002,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
-      </c>
-      <c r="G84" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3231,13 +3026,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3257,13 +3050,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>15</v>
-      </c>
-      <c r="G86" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3283,13 +3074,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3309,13 +3098,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3335,13 +3122,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>15</v>
-      </c>
-      <c r="G89" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3361,13 +3146,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3387,13 +3170,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>15</v>
-      </c>
-      <c r="G91" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3413,13 +3194,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3439,13 +3218,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>15</v>
-      </c>
-      <c r="G93" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3465,13 +3242,11 @@
         <v>10</v>
       </c>
       <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3491,13 +3266,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>15</v>
-      </c>
-      <c r="G95" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3517,13 +3290,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3543,13 +3314,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>15</v>
-      </c>
-      <c r="G97" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3569,13 +3338,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>15</v>
-      </c>
-      <c r="G98" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3595,13 +3362,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>15</v>
-      </c>
-      <c r="G99" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3621,13 +3386,11 @@
         <v>10</v>
       </c>
       <c r="F100" t="s">
-        <v>15</v>
-      </c>
-      <c r="G100" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3647,13 +3410,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>15</v>
-      </c>
-      <c r="G101" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3673,13 +3434,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>15</v>
-      </c>
-      <c r="G102" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3699,13 +3458,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>15</v>
-      </c>
-      <c r="G103" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3725,13 +3482,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>15</v>
-      </c>
-      <c r="G104" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3751,13 +3506,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>15</v>
-      </c>
-      <c r="G105" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3777,13 +3530,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>15</v>
-      </c>
-      <c r="G106" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3803,13 +3554,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>29</v>
-      </c>
-      <c r="G107" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3829,13 +3578,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>15</v>
-      </c>
-      <c r="G108" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3855,13 +3602,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>29</v>
-      </c>
-      <c r="G109" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3881,13 +3626,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>15</v>
-      </c>
-      <c r="G110" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3907,13 +3650,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>29</v>
-      </c>
-      <c r="G111" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3933,13 +3674,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>15</v>
-      </c>
-      <c r="G112" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3959,13 +3698,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3985,13 +3722,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>15</v>
-      </c>
-      <c r="G114" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4011,13 +3746,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>29</v>
-      </c>
-      <c r="G115" t="s">
-        <v>30</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4039,11 +3772,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4063,13 +3794,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4091,11 +3820,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4115,13 +3842,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>15</v>
-      </c>
-      <c r="G119" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4143,11 +3868,9 @@
       <c r="F120" t="s">
         <v>11</v>
       </c>
-      <c r="G120" t="s">
-        <v>12</v>
-      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4167,13 +3890,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>15</v>
-      </c>
-      <c r="G121" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4195,11 +3916,9 @@
       <c r="F122" t="s">
         <v>11</v>
       </c>
-      <c r="G122" t="s">
-        <v>12</v>
-      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4219,13 +3938,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>15</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4247,11 +3964,9 @@
       <c r="F124" t="s">
         <v>11</v>
       </c>
-      <c r="G124" t="s">
-        <v>12</v>
-      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4271,13 +3986,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>15</v>
-      </c>
-      <c r="G125" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4299,11 +4012,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4323,13 +4034,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>15</v>
-      </c>
-      <c r="G127" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4351,11 +4060,9 @@
       <c r="F128" t="s">
         <v>11</v>
       </c>
-      <c r="G128" t="s">
-        <v>12</v>
-      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4375,13 +4082,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>15</v>
-      </c>
-      <c r="G129" t="s">
-        <v>23</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4403,11 +4108,9 @@
       <c r="F130" t="s">
         <v>11</v>
       </c>
-      <c r="G130" t="s">
-        <v>12</v>
-      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4427,13 +4130,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>15</v>
-      </c>
-      <c r="G131" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4455,11 +4156,9 @@
       <c r="F132" t="s">
         <v>11</v>
       </c>
-      <c r="G132" t="s">
-        <v>12</v>
-      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4479,13 +4178,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>15</v>
-      </c>
-      <c r="G133" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4507,11 +4204,9 @@
       <c r="F134" t="s">
         <v>11</v>
       </c>
-      <c r="G134" t="s">
-        <v>12</v>
-      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4531,13 +4226,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>15</v>
-      </c>
-      <c r="G135" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4559,11 +4252,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4583,13 +4274,11 @@
         <v>10</v>
       </c>
       <c r="F137" t="s">
-        <v>55</v>
-      </c>
-      <c r="G137" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4609,13 +4298,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>15</v>
-      </c>
-      <c r="G138" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4635,13 +4322,11 @@
         <v>10</v>
       </c>
       <c r="F139" t="s">
-        <v>55</v>
-      </c>
-      <c r="G139" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4661,13 +4346,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>15</v>
-      </c>
-      <c r="G140" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4687,13 +4370,11 @@
         <v>10</v>
       </c>
       <c r="F141" t="s">
-        <v>55</v>
-      </c>
-      <c r="G141" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4713,13 +4394,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>15</v>
-      </c>
-      <c r="G142" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4739,13 +4418,11 @@
         <v>10</v>
       </c>
       <c r="F143" t="s">
-        <v>55</v>
-      </c>
-      <c r="G143" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4765,13 +4442,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>15</v>
-      </c>
-      <c r="G144" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4791,13 +4466,11 @@
         <v>10</v>
       </c>
       <c r="F145" t="s">
-        <v>55</v>
-      </c>
-      <c r="G145" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4817,13 +4490,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>15</v>
-      </c>
-      <c r="G146" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4843,13 +4514,11 @@
         <v>10</v>
       </c>
       <c r="F147" t="s">
-        <v>55</v>
-      </c>
-      <c r="G147" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4869,13 +4538,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>15</v>
-      </c>
-      <c r="G148" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4895,13 +4562,11 @@
         <v>10</v>
       </c>
       <c r="F149" t="s">
-        <v>55</v>
-      </c>
-      <c r="G149" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4921,13 +4586,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>15</v>
-      </c>
-      <c r="G150" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4947,13 +4610,11 @@
         <v>10</v>
       </c>
       <c r="F151" t="s">
-        <v>55</v>
-      </c>
-      <c r="G151" t="s">
-        <v>56</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4973,13 +4634,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4999,13 +4658,11 @@
         <v>10</v>
       </c>
       <c r="F153" t="s">
-        <v>15</v>
-      </c>
-      <c r="G153" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5025,13 +4682,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5051,13 +4706,11 @@
         <v>10</v>
       </c>
       <c r="F155" t="s">
-        <v>15</v>
-      </c>
-      <c r="G155" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5077,13 +4730,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5103,13 +4754,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>15</v>
-      </c>
-      <c r="G157" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5129,13 +4778,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>15</v>
-      </c>
-      <c r="G158" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5155,13 +4802,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5181,13 +4826,11 @@
         <v>10</v>
       </c>
       <c r="F160" t="s">
-        <v>15</v>
-      </c>
-      <c r="G160" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5207,13 +4850,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>15</v>
-      </c>
-      <c r="G161" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5233,13 +4874,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>15</v>
-      </c>
-      <c r="G162" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5259,13 +4898,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>15</v>
-      </c>
-      <c r="G163" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5285,13 +4922,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>15</v>
-      </c>
-      <c r="G164" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5311,13 +4946,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>15</v>
-      </c>
-      <c r="G165" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5337,13 +4970,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>15</v>
-      </c>
-      <c r="G166" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5363,13 +4994,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>15</v>
-      </c>
-      <c r="G167" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5389,13 +5018,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>15</v>
-      </c>
-      <c r="G168" t="s">
-        <v>64</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5415,13 +5042,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>15</v>
-      </c>
-      <c r="G169" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5441,13 +5066,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>15</v>
-      </c>
-      <c r="G170" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G170" t="s"/>
       <c r="H170" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5467,13 +5090,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>15</v>
-      </c>
-      <c r="G171" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5493,13 +5114,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>15</v>
-      </c>
-      <c r="G172" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5519,13 +5138,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>15</v>
-      </c>
-      <c r="G173" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5545,13 +5162,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>15</v>
-      </c>
-      <c r="G174" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5571,13 +5186,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>15</v>
-      </c>
-      <c r="G175" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5597,13 +5210,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>15</v>
-      </c>
-      <c r="G176" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5623,13 +5234,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>15</v>
-      </c>
-      <c r="G177" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5649,13 +5258,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>15</v>
-      </c>
-      <c r="G178" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5675,13 +5282,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>15</v>
-      </c>
-      <c r="G179" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5701,13 +5306,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>15</v>
-      </c>
-      <c r="G180" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5727,13 +5330,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>15</v>
-      </c>
-      <c r="G181" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5753,13 +5354,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>15</v>
-      </c>
-      <c r="G182" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5779,13 +5378,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>15</v>
-      </c>
-      <c r="G183" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5805,13 +5402,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>15</v>
-      </c>
-      <c r="G184" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5831,13 +5426,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>15</v>
-      </c>
-      <c r="G185" t="s">
-        <v>76</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5857,13 +5450,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>15</v>
-      </c>
-      <c r="G186" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5883,13 +5474,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>15</v>
-      </c>
-      <c r="G187" t="s">
-        <v>45</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5909,13 +5498,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>15</v>
-      </c>
-      <c r="G188" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5935,13 +5522,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>15</v>
-      </c>
-      <c r="G189" t="s">
-        <v>27</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5961,13 +5546,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>15</v>
-      </c>
-      <c r="G190" t="s">
-        <v>25</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5987,13 +5570,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>15</v>
-      </c>
-      <c r="G191" t="s">
-        <v>215</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6013,13 +5594,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>15</v>
-      </c>
-      <c r="G192" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6039,13 +5618,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>15</v>
-      </c>
-      <c r="G193" t="s">
-        <v>21</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6067,11 +5644,9 @@
       <c r="F194" t="s">
         <v>11</v>
       </c>
-      <c r="G194" t="s">
-        <v>12</v>
-      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6093,11 +5668,9 @@
       <c r="F195" t="s">
         <v>11</v>
       </c>
-      <c r="G195" t="s">
-        <v>12</v>
-      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96241.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96241.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412631</t>
   </si>
   <si>
+    <t>Graves</t>
+  </si>
+  <si>
+    <t>Garret</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman.    I am honored that we have with us today a local artist and Harley rider who has joined us this morning. He also happens to be a justice of the Supreme Court, Justice John Weimer, who is a graduate of Nicholls State University and Louisiana State University Law School, the father of three great daughters; and, of course, his wife Penny. We are very much honored to have Justice Weimer here.    Justice, thank you very much for your efforts to raise the court for us today.    Justice Weimer. Thank you, Congressman.    Bonjour, and bienvenue. That is Cajun French for ``good day'' and ``welcome.''    My name is John Weimer. I serve on the court here, and on behalf of the Chief Justice and my fellow associate justices, we welcome you.    Over 200 years ago, one of the Founding Fathers of our Nation recognized the economic and strategic significance of Louisiana to the destiny of our Nation. Thomas Jefferson signed the Louisiana Purchase just over 200 years ago.    One who had become president recognized the economic and strategic significance of Louisiana to the destiny of our Nation. Andrew Jackson risked his life on the plains of Chalmette at the Battle of New Orleans.    What Jefferson and Jackson recognized over 200 years ago has been realized. Louisiana fuels this Nation's economy with oil and gas. Louisiana feeds this Nation with seafood, the crabs, shrimp, oysters, fish, crawfish, and I understand an occasional alligator harvested here in Louisiana.    Now, in the spirit of full disclosure, Congressman Graves and I have a relationship. Our nephew, David Clavell, serves on his staff, and in south Louisiana, that is considered a relationship. David was involved in ensuring that we were here today, and I commend him for his efforts in that respect.    We are very pleased to have you in this historic venue, in this historic city, in our state of Louisiana. Again, bienvenue and merci beaucoup.</t>
   </si>
   <si>
@@ -61,30 +70,54 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Vitter</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Senator Vitter. Thank you very much, Chairman Bishop and members of this committee, for being here--welcome to Louisiana--and for holding this important hearing on the impacts of Federal policies on energy production and economic growth in the Gulf. And a special thanks to Congressmen Fleming and Graves for inviting me here and hosting me here.    Mr. Chairman, in the spirit of your earlier comments, just for the record, don't drink from the water fountains on the Senate side. I try to maintain a strong, vibrant House personality. So, in that spirit, I would love to join the committee after our testimony, but unfortunately I have to go immediately to the airport to return for votes.    It has been nearly 5\\1/2\\ years since the BP disaster devastated the Gulf region. Beyond the economic and environmental consequences--which were major, and of course we will talk about those--I want to begin by acknowledging the human tragedy and the loss of 11 fine men who were working on the rig: specifically Jason Anderson, 35, of Midfield, Texas; Aaron Dale ``Bubba'' Burkeen, 37, of Philadelphia, Mississippi; Donald Clark, 49, of Newellton, Louisiana; Stephen Ray Curtis, 40, of Georgetown, Louisiana; Gordon Jones, 28, of Baton Rouge, Louisiana; Roy Wyatt Kemp, 27, of Jonesville, Louisiana; Karl Dale Kleppinger, Jr., 38, of Natchez, Mississippi; Keith Blair Manuel, 56, of Gonzales, Louisiana; Dewey Revette, 48, of State Line, Mississippi; Shane Roshto, 22, of Liberty, Mississippi; and Adam Weise, 24, of Yorktown, Texas. I think it is very important to acknowledge that horrible human loss and remember them, and their families, in our prayers.    For 3 months after that horrendous explosion, more than 200 million gallons of crude oil spilled into the Gulf of Mexico, resulting in billions of dollars of economic and environmental damages that the Gulf region is still recovering from.    But, Mr. Chairman, there was additional great loss, and that additional great loss was completely avoidable. That came from the Obama administration's short-sighted and knee-jerk reaction, particularly in the way they imposed a 6-month drilling moratorium, and after that a de facto moratorium or ``permatorium'' that only compounded and multiplied the devastation of the spill.    That is important to note because I think that is the continuing context that some of these overly onerous regulations are part of. It is part of a devastating pattern. This initial moratorium was particularly noteworthy because President Obama's White House put out statements saying, suggesting that the panel of experts they immediately empaneled after the spill recommended the moratorium.    That was a lie, a flat-out lie, and the experts eventually said that and made that clear. So the Administration just used that to justify a needless moratorium and all of the economic costs that it brought with it.    In the years since, I have worked with many others to ensure that this kind of tragedy and subsequent economic loss never happens again. Certainly as a state and a Nation, we need a clear and a strong regulatory scheme that promotes stringent safety standards while allowing the industry to thrive and do its business. While many important reforms have been made, there is still important work to be done.    Louisiana's offshore oil and gas development isn't just one of the state's largest economic drivers; it is a way of life for so many, providing careers and livelihoods for so many in the region. The industry has operated harmoniously alongside other critical offshore and coastal industries, like commercial and recreational fishing and tourism.    While the recent energy boom of the last few years in the United States has helped Louisiana recover from President Obama's drilling moratorium with a dramatic dip in price, I am particularly concerned now about the continuing regulatory avalanche coming from the Obama administration aimed at oil and gas.    I know that this committee and others are examining the Department of the Interior's proposed Well Control Rule, and I encourage those determined efforts. Some stakeholders have conveyed to me that that proposal could have substantial economic impacts throughout the offshore oil and gas supply chain, which our state and region cannot afford. So, we must get to the bottom of that.    President Obama's attack on the oil and gas industry is not restricted to offshore exploration and development. There are a myriad of regulations coming our way that will have disastrous effects on onshore oil and gas businesses, such as the recently proposed methane rules for upstream oil and gas operations and the pending proposal to reduce the standard for ground-level ozone. These proposals, and many others that this and other committees have looked at, are likely to impose dramatic new economic burdens on the industry, which has been one of the few bright spots in the economy under President Obama.    So again, Mr. Chairman, I think the key point is that this is part of a pattern. It is a pattern we saw starting with the moratorium which was based on lies out of the White House about the recommendations of the panel of experts. It is a pattern that includes many, many regulatory overreaches, significant new burdens being placed on the economy with little or no positive health, safety, or environmental impact.    Protecting the health of the oil and gas industry is critical for all of us, for Louisiana and for the Nation. So, Mr. Chairman, thank you for this opportunity to testify and for this committee coming to the Gulf, coming to Louisiana as part of that important effort.</t>
   </si>
   <si>
+    <t>Cassidy</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Senator Cassidy. Mr. Bishop, thank you for your testimony, which I found excellent.    Representative Smith, I am glad to see you survived your gator hunt.    [Laughter.]</t>
   </si>
   <si>
     <t xml:space="preserve">    Senator Cassidy. I hope it was productive.    I thank you all for being here and for holding this hearing today, bringing greater attention to the energy production and its economic impact along the Gulf Coast.    The energy activities in the coastal Gulf states and the adjacent offshore waters have produced billions of barrels of oil and trillions of cubic feet of natural gas. They have been an important contributor to the domestic energy production which is critical for our country's energy independence and security. Every barrel of oil and cubic foot of natural gas produced in the Gulf of Mexico eliminates the need for energy from foreign sources.    Unfortunately, the actions and policy of this Administration are counter-productive, literally. For example, one thing that is of particular importance to us in Louisiana is the Administration's proposal to redirect coastal restoration funds, or GOMESA funds, that are scheduled to come to Louisiana beginning in 2017. A little ironically, a few weeks ago President Obama visited New Orleans to commemorate the region's rebirth on the 10th anniversary of Hurricanes Katrina and Rita. Yet, the sustainability of Louisiana's recovery is being placed in jeopardy by the President's Fiscal Year 2016 budget proposal. This proposal would redirect revenue derived from the energy production off Louisiana's coast toward unrelated projects. Louisiana is relying upon this revenue because, by our state constitution, it will be used to restore Louisiana wetlands.    Now, just to put this in perspective, Louisiana is experiencing unparalleled land loss due to Federal engineering decisions made nearly a century ago that have channeled the lower Mississippi River system for the benefit of the rest of the Nation. Louisiana's 2,300 square miles of land loss is largely attributed to this channelization, which was abetted by the placement of levies along the river system, and this has converted a once-growing delta plain to the greatest source of wetlands loss in our history.    Louisiana is counting on the revenues derived from offshore energy production to fund a portion of the projects necessary to restore our coast. Close to 18 percent of Louisiana's oil production and about 24 percent of its natural gas production originates, is transported through, or is processed in Louisiana's coastal wetlands. This is important not just for us but, as this shows, also for the rest of the Nation, and Congressman Graves is the expert on this.    Over 500 tons of water-borne cargo passes through Louisiana's system of deep draft ports and navigational channels each year. If the present land loss rates continue, more than 155 miles of waterways and several ports will be exposed to open water within 50 years. This is important not just for Louisiana, but for all those farmers in the Mississippi Valley system who rely upon these ports to send their products to international markets.    Now, related to this, Louisiana depends upon the revenue from production in the Gulf of Mexico, as does the Nation, to restore our wetlands. A second way the Obama administration's policies negatively affect this revenue stream is by locking up the Outer Continental Shelf's acreage which could be leased. Under this Administration, as you noted, Mr. Chairman, less than 2 percent of the 1.71 billion Federal Outer Continental Shelf acreage is under lease. Over 63 million acres in the Gulf of Mexico alone remain locked up. This lost opportunity results in fewer jobs, less government revenue, and a greater reliance upon foreign sources of oil.    If the draft proposed plan for offshore production is finalized in 2016, the Obama administration will have effectively controlled a decade of offshore oil and gas lease planning. The draft 5-year plan for 2017 to 2022 lists 14 sales. As you noted, this is the lowest number of lease sales in the 42-year history of the planning process.    Now, the second issue is supply constraints or access. Despite the Obama administration's policies, according to the Energy Information Administration, in the short term the Gulf of Mexico is expected to defy the overall trend of decreased production domestically because of lower oil prices, et cetera, and will continue to produce oil.    However, these offshore fields require both surface and subsea production equipment, and if the low oil price persists and operators cannot develop unique ways to decrease the capital required for these new projects and/or improve recovery rates, production will slip, and that in turn will negatively impact both jobs, Federal revenue through lease sales, as well as the amount of revenue Louisiana has to rebuild its coastline.    This is exacerbated by the excess regulations that you noted and that Senator Vitter also noted. The estimates of the cost of these would be as much as $10-$30 million, in addition to the increased expenditures required under previously issued regulations. The industry estimates the 10-year cumulative cost of these rules to be approximately $32 billion.    In response to this problematic regulatory climate, I, along with Senator Vitter, drafted a bill that became Title 1 of the OPENS Act, legislation that was reported out of the Senate Energy and Natural Resources Committee last month. As from the title, the OPENS Act opens up more acreage for energy production offshore. For example, some would open up the Eastern Gulf of Mexico by redefining the Eastern Gulf moratoria of 2017.    In addition to expanding energy supply, according to a 2014 study, by 2035, Eastern Gulf offshore natural gas development would produce nearly 1 million barrels of oil equivalent per day, generating nearly 230,000 jobs, contributing over $18 billion per year to the U.S. economy, and generating $70 billion in cumulative government revenue.    So, to conclude, the rise in production in the Gulf of Mexico is occurring due to large reserves and production efficiencies that streamline operational drilling costs. Although the long lead time and significant capital investment required to drill somewhat insulates production activity from short-term price volatility, the Obama administration's offshore drilling plan and proposed regulations could erode the economic viability of future well production in the Gulf of Mexico.    We must provide a regulatory environment to produce offshore oil and gas in a safe, economical way, while allowing access to the large undiscovered, technically recoverable oil and gas revenues on the Federal lands offshore. It is critical that production continue to grow in the Gulf of Mexico to protect and sustain our energy independence and to create the good jobs with good benefits for which there are far too few in today's economy.    Thank you, Mr. Chairman.</t>
   </si>
   <si>
+    <t>Leimkuhler</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Leimkuhler. Good morning. Chairman Bishop and members of the committee, thank you for inviting me to testify on behalf of LLOG Exploration Company. LLOG welcomes this opportunity to provide what we see as improvements to Federal policies on oil and gas activity in the Outer Continental Shelf.    LLOG is the largest privately-owned oil producer in the United States, headquartered in Covington, Louisiana. Our focus is the deepwater U.S. Gulf of Mexico, where we apply a targeted approach to subsea wells and floating production systems to safely and efficiently develop the Nation's deepwater oil and gas resources.    Unlike the major integrated oil and gas companies, our area of focus is limited. However, the level of expertise and capability we bring to those areas is state-of-the-art. There is additional information about our company in your addendum, but I would like to highlight two main points.    The first is safety. At LLOG, we, and especially myself personally, hold it as a core value. Priorities change, but values do not. In scope, we have 16 deepwater developments to date, with 8 fields currently in the OCS under development. We are a small company that does big things.    Depending upon where a subsea well is drilled in the Gulf of Mexico, anywhere from 9 to 11 permits or plan approvals are needed to move a prospect from leasing into production. These approvals come from BOEM, BSEE, and the EPA. In your slide pack is a simplified version of the process, which is shown on Slide 4. Within that regulatory protocol, I would like to highlight three areas where LLOG feels there are improvement opportunities, as well as other issues not addressed on the slide.    The first improvement area is the appropriate balance of prescriptive- versus performance-based regulations. In the past, the technical regulatory staff at the regulators had an appropriate degree of professional judgment that they could apply to approve permits and operations. Over time, that balance has moved to a more prescriptive approach. Of particular note, based on our analysis and review of the proposed Well Control Safety Rule, the application has become so prescriptive in the proposed rule, relative to well design and real-time monitoring, that it is likely to be counter-productive to safe operations. LLOG strongly encourages BSEE and BOEM to take a balanced approach to regulatory enforcement using prescriptive- as well as performance-based regulations, especially in those two areas. I would be more than happy to provide examples in the follow-up Q&amp;A.    Second is the exploration plan and well permit approval process. I have worked my entire career offshore in the Gulf of Mexico since 1987, and the technical professionals and regional management at the regulatory agencies that I have worked with over that time were and are consistently professional, capable, and dedicated. In my opinion, the Bureau just needs more of them. We are now 1 month away from the 5-year anniversary of the end of the moratorium, yet we continue to see our well-related permits and even exploration plans approved just in time. This is not due to a lack of effort by the staff but, in my opinion, an understaffed situation, despite the best efforts of district and regional management to recruit and retain good talent. I am encouraged that they appear to be taking advantage of the current downturn to add experienced staff, and that should be encouraged.    Third is the commingling process. LLOG strives to make all the wells we drill commercial by utilizing smart well technology to open up multiple zones in adjacent reservoirs within the same well. We have never drilled an expendable well. As long as Mother Nature cooperates and we find the reservoirs in the expected location and depth, we can file for a commingling permit in advance. However, zones often do not come in as expected and we need to file an initial commingling permit or modify an existing one.    With a rig on location costing $1 million a day in capital, we need to evaluate the ability and likelihood to obtain commingling permit approval in time, versus the impact of costly delays. Under such conditions, the added burden or risk of a regulatory delay has actually made some zones uneconomic to produce. This hinders the industry's ability to bring American energy to U.S. consumers and provide a robust supply of affordable, reliable energy.    Among the additional improvement opportunities are the impact of rigid application of the Jones Act to offshore facility installation, and the impact of obtaining Clean Air permits.    With respect to the Jones Act and the heavy-lift vessels required to install offshore facilities, LLOG encourages the U.S. Customs and Border Protection to adhere to the prior historical application of the law with respect to the use of heavy-lift vessels. LLOG feels application of the Jones Act to the heavy-lift vessels forces us to possibly transfer jobs overseas and away from U.S. Gulf Coast fabrication yards. On this issue, LLOG commends a letter sent by BBSE Director Brian Salerno to the U.S. Customs and Border Protection earlier this month supporting the industry position to return to the historical application of the Jones Act with respect to heavy-lift vessels used in offshore construction.    Regarding the air permits, the Clean Air Act compliance is incorporated into the exploration plan approval process, as required by BOEM, except for the Eastern Gulf of Mexico, where the EPA air permit protocol is quite different. The EPA permits take 12 to 18 months to secure and, in our view, relative to the BOEM protocol, adds operational complexity and delays with no actual benefit relative to Clean Air Act compliance. LLOG urges you to consider BOEM for the Clean Air Act compliance across the Gulf of Mexico.    Thank you for the opportunity to present the views of LLOG and myself on these issues. The safe, efficient production and use of our Nation's resources in the OCS continues to be critical for our Nation's energy, and I am happy to answer any questions the committee may have or raise additional issues beyond which I could cover in my 5 minutes.</t>
   </si>
   <si>
+    <t>Henderson</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Henderson. Thank you. We continue to hear about reducing our dependence on foreign oil, but we cannot import clean air, water, food, and soil. The BP disaster of 2010 and decades of oil extraction has led to severe environmental, social, and political impacts.    To remind this committee of just a few, hundreds of millions of gallons of oil have leaked into the Gulf; the destruction of sensitive fish habitat like coral reefs; countless dead marine mammals and sea turtles; contaminated beaches and wildlife refuges; deployment of harmful dispersants; discharging of fracking chemicals; 27,000 abandoned, unmonitored, and possibly leaking wells; the devastation of communities and loss of cultures; shrimp with no eyes, fish with lesions and tumors; destroyed family businesses and devastated families; suicides; sick, dead, and dying cleanup workers; and a distrust of our government. In addition, regulatory capture and the hijacking of our democracy, not to mention that roughly 600 square miles of Louisiana's wetlands have been destroyed by the oil and gas industry, which is very much a threat to the existence of my hometown of New Orleans, and the very building that we sit in today.    In the fall of 2010, I filed my first official pollution incident report with the National Response Center (NRC) for an oil slick leaking out of a wellhead in a bay known for very productive and economically important oyster beds. To date, I have filed approximately 100 NRC reports for leaks, including offshore and onshore platforms, pipelines, wellheads, and tank batteries--most recently, on August 17, 2015, for a suspected ruptured gas pipeline in Lafourche Parish, and that same day a roughly 15-mile-long rainbow sheen well offshore.    There are very few people who do this kind of proactive monitoring work in this region, but the need is great. My reports to the NRC have led to numerous successful investigations by the U.S. Coast Guard, which in turn has led to mutual respect and trust between myself and the leaders of various sectors and their incident management personnel.    Since July of 2010, the NRC has recorded approximately 10,000 spills of crude oil, petrochemicals, and other contaminants into Gulf of Mexico waters.    The BP disaster highlighted the flawed process by which oil discharges are reported and cleaned up, and for which companies are held accountable. It revealed how the official channels of reporting and cleaning up oil pollution rely on the polluters themselves. Little information is made available to the public, and the information that is presented could be considered untrustworthy. These massive reporting gaps make it impossible to determine how much oil pollution is actually being released into the Gulf.    One particularly egregious example of underreporting involves the Taylor Energy leak. For over 10 years this chronic oil leak has been spewing oil into the Gulf waters every day, with no end in sight. The discharge began in 2004 when an undersea landslide caused by Hurricane Ivan damaged a Taylor platform and 28 wells. Our work monitoring the Taylor leak and a recent AP investigation published in April shed light on the underreported flow amount and led to revision of the estimates.    In the immediate aftermath of Hurricane Isaac in 2012, I, along with my partners at the Gulf Monitoring Consortium, took several monitoring trips and documented leaks. Our findings, from a review of NRC reports, indicated that there were 130 accidents resulting from the storm that were reported to the     Based on my experience in the Gulf region and my participation in the New Orleans area contingency plan meetings and exercises, I am greatly concerned that government and industry are not adequately prepared for a worst-case scenario. An ongoing blowout in the Gulf of Mexico hit by a Category 5 hurricane would cause the response to be put on hold, and we could very likely be hit by another hurricane shortly thereafter. This would be an environmentally chaotic situation that is not being planned for and that threatens our homeland security.    This committee should introduce and pass a Gulf of Mexico Regional Citizens' Advisory Council. Attached to my testimony is a draft bill that was attempted to be introduced in 2014. A Gulf of Mexico Regional Citizens' Advisory Council will enhance engagement, communication, collaboration, and trust among the Gulf oil industry, Federal and state governments, and citizen stakeholders potentially impacted by Gulf oil operations.    Five years after the BP disaster, attempts are being made to open up the Eastern Gulf of Mexico and the Mid-Atlantic. This should not happen. At the same time these attempts are being made, investigations by New Orleans-based WLTV have raised serious concerns that the new post-BP safety standards may not be taken seriously enough at existing Gulf operations.    The bottom line is that Congress needs to act. Congress needs to pass a Regional Citizens' Advisory Council. It can raise the liability limit for offshore drilling, and it needs to make the Federal Oil Spill Liability Trust Fund available for Federal agencies when incidents occur.    Congress must start taking our oil, air, and water seriously. It is our homeland security. Thank you.</t>
   </si>
   <si>
+    <t>Davis</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Davis. Thank you, Chairman Bishop and committee members, for giving me the opportunity to share my comments.    RIG-CHEM was formed in 1980 as a small oilfield service company that supported the energy industry. In 1984, my father, at the age of 50, was forced into early retirement by the downturn in the industry, much like what we are facing today. With his $25,000 severance after 21 years of service with Schlumberger, he invested his and his family's future in RIG-CHEM. By doing so, my parents created an opportunity for their children with the hope that the company would grow and support our family for many years to come, which it has. The days of modest investment and hard work are not as easily come by. Times are different, and $25,000 will not afford the same opportunities that were possible in 1984.    Our company employees 16 people across Louisiana and Texas, with an average tenure of 16 years of company service. We are proud to say that the average annual income of our dedicated employees is $66,000 per year. We also provide company-paid health insurance, 401(k) and profit sharing, and have never laid anyone off despite the cyclical highs and lows of the energy industry.    Over the last 30 years, our company has weathered through tough times, business challenges, increased competition, industry fluctuation, hurricanes, a moratorium, the Great Crew Change, and now a terrifying revisit of the early 1980s with the decline in the price of oil. Many other small, family-owned companies face these same challenges, but today our battle is not just managing economic market fluctuations; we now also have the impending obstacles of continued tightening of government regulation. These regulations will limit opportunities and squeeze small businesses out of the market, out of business today.    Our daily focus is to remain competitive, safe, and efficient in a shrinking industry, where the ability as a small, diverse company that has to compete against the majors is becoming increasingly difficult. There was a time that oil and gas operators welcomed small business to help develop new technology and keep competition healthy. Since Macondo, the moratorium, slow recovery, government interference, and record low oil prices, the value of diverse business is becoming extinct as companies do what is necessary to survive the times.    Speaking on a local level, the community where RIG-CHEM is located, Terrebonne Parish in Louisiana, last February had the lowest unemployment rate, at 2.8 percent, in the country. This week we were advised that our parish has been added to a credit rating watch list due to the rising unemployment and reduced sales tax collections, which are down by 15 percent. These uncertain times are more reason to work closely on regulation to prevent this from becoming a grave reality for many energy municipalities.    My plea to you is to allow industry to work collaboratively with government to address the needs of safety and responsibility together. Let the experts in their respective fields guide the decisions that impact our energy future and ultimately energy independence. When regulations are mandated, require that these burdens that are being leveraged upon our Gulf of Mexico operators be the same for those we import from into the United States, to level the global playing field.    I am not a technical expert, but a business owner who is concerned about the impact that the proposed Well Control Rule will indirectly have on RIG-CHEM, our employees, and the many small companies like ours. Let us together protect our future. I stand behind the oil and gas operators and state that the proposed Well Containment Rule does not provide substantial improvements to safety or build on post-Macondo progress, will hinder offshore oil and gas development, will eliminate jobs and hurt our energy security in the future, and I advise that the rule be rewritten.    We cannot control OPEC or the forces of nature, but we can stop imposing more regulations that will drive us out of business. There was a saying back in the 1980s--``the last person to leave should turn off the lights.'' Folks, the lights are dimming, and we will have no one else to blame but government for refusing to work toward a reasonable solution.    Let's work together. Let's work to keep the lights on.    Thank you very much for your time.</t>
   </si>
   <si>
+    <t>Mason</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Dr. Mason. Good morning, Chairman Bishop and members of the committee. Thank you for the opportunity to testify on this very important topic.    Unfortunately, little has changed in the Gulf region since my July 2010 study on the economic costs of a moratorium to the Gulf region. That study predicted a roughly $2 billion slowdown in economic activity in the Gulf states following the 6-month drilling moratorium in May 2010.    While it is difficult to disentangle the effect of just the moratorium after the fact, real GDP from oil and gas extraction in the four Gulf states measured in that study fell by $16 billion in 2009-2010, and remains $11 billion below 2009 real GDP in 2011.    Not much has changed for Louisiana in recent years. In 2012-2013, Louisiana real GDP from oil and gas extraction fell 16 percent, and in 2013-2014, it fell another 6 percent. States with more onshore focus grew considerably in 2014, but even the states that did well in recent years can be expected to slow in 2015 due to persistent low oil prices.    Amidst this industry difficulty, the Department of the Interior's BSEE recently published new requirements and procedures related to blowout prevention systems and well control. In strict economic terms, those requirements pose new costs for the offshore oil and gas industry at a time when high-cost production is being pushed out of the industry.    It should come as no surprise, therefore, that a recent American Petroleum Institute study of the potential impact of the proposed rule concluded that, ``Under the new regulations, approximately 690 fewer wells are projected in the U.S. Gulf of Mexico between 2017 and 2030, a 26 percent decline in drilling activity.''    From a pure economic perspective, increased costs should result in lower supply. Regression results in my written testimony suggest, however, that production declines associated with additional regulation may be costlier if there already exists a significant regulatory burden.    The direct results of production declines are, inevitably, fewer jobs, decreased wages, and lower economic growth. These effects will exacerbate competitive pressures in higher education as students, whether studying oil and gas, alternative energy, or compliance, are left without job prospects, and university programs without funding. Those funding shortfalls hurt research into new energy sources. The majority of Louisiana State University's externally-funded energy research is not associated with fossil fuels, but renewables. Moreover, that energy research funding is nearly equal to the total budget provided to the relevant colleges by the state of Louisiana. That research money is plugged back into course development and student support for education and workforce training and related fields.    LSU offers a number of degree majors and minors that are relevant to energy issues. Estimates suggest that almost 3,000 LSU undergraduate and graduate students study in energy-related fields. But program enrollment alone may severely understate the importance of workforce development to students in our region.    For instance, even without a dedicated program, some 18 percent of LSU business school grads go on to work in the oil and gas and energy sectors. Moreover, the college reports that LSU business graduates boast the highest mid-career earnings among peer institutions largely due to that energy industry employment. As a result, the College of Business, like many other academic units at LSU, is launching a variety of programs to prepare students for the opportunities and challenges presented in today's energy sector.    LSU also provides energy-related workforce development in the form of worker safety, continuing education, and various energy specialization programs focused on fossil fuels, as well as renewables. As noted by Mr. Herbst initially, LSU's workforce development programs are a vital component of safety and efficiency in today's energy industry.    In summary, LSU is inextricably intertwined with the energy industry and the Gulf of Mexico. Higher production costs will reduce grant funding, class offerings, and student placements. Further declines in higher education in Louisiana and similar states will be unavoidable. And ironically, a chief casualty of the slowdown will be research into clean and efficient energy sources to replace fossil fuels. I respectfully ask the Members present to please think hard about these dynamics before layering new offshore regulations on Gulf energy production. Thank you.</t>
   </si>
   <si>
     <t>412275</t>
   </si>
   <si>
+    <t>Fleming</t>
+  </si>
+  <si>
+    <t>John</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fleming. Thank you, Mr. Chairman.    I thank the panel for being here today.    Mr. Leimkuhler, I would like to ask you some questions. My personal background is that I am a physician from the private sector, but also I have been serving in Congress since 2009. I have observed that regulations, increased regulations, and more complicated or expensive regulations, don't necessarily translate to more safety.    So, what I would like to ask you about is this. In your testimony, you differentiated between performance-based regulations and prescriptive regulations. For example, real-time monitoring sounds like a good thing to have. But many of those who commented on the rule believe it will make operations less safe.    What do you have to say about that?</t>
   </si>
   <si>
@@ -127,6 +160,9 @@
     <t xml:space="preserve">    Mr. Graves. Thank you, Mr. Chairman.    Mr. Herbst, thank you for being here. I have a couple of questions for you. But first of all, I want to talk briefly about the macro perspective.    We have seen energy prices at record lows right now relative to previous performance, and obviously the cost of producing energy in the offshore is a substantial investment and one, as you noted, that is often determined in excess of a decade in advance of actual production.    When you combine what is going on right now--OPEC nations, led by Saudi Arabia, are continuing to flood the market. When you look at some of the other actions of this Administration, with regard to the Iran agreement, that is going to allow for hundreds of millions of barrels of additional oil to be put on the market.    I want to make note, Mr. Chairman, that I don't remember seeing a greenhouse gas evaluation by this Administration in regard to the Iran agreement, as was done with the Keystone Pipeline.    The point here is you are seeing extraordinary price pressures. We are seeing right now folks getting pink slips all over the Gulf of Mexico, and Senator Vitter and Senator Cassidy noted all the associated employment opportunities related to offshore oil and gas production. Importantly, I have heard the statistic over and over again that offshore energy production is the second-largest revenue stream for the U.S. Treasury outside of taxes, a big revenue stream for the U.S. Treasury. And as I recall, we are approaching nearly $200 billion in funds for the U.S. Treasury from offshore energy production, the majority, the far majority of which, you are well aware, is produced offshore the coast of Louisiana.    As Senator Cassidy noted, the implications of this are not limited to just taxpayers, not limited to the U.S. Treasury. The implications of this rule, if it continues to cause a reduction in offshore energy production--and I remind you, in 2009, 30 percent of all the domestic crude produced in the United States was produced in the Gulf of Mexico. Today, it is down to 17 percent. Historically, I believe it was 11 percent of all the domestic gas production was in the Gulf of Mexico. It is down to 5 percent today.    As Senator Cassidy noted, these revenue streams are actually coming back to the state of Louisiana to restore our coast, to help protect our environment, our ecological productivity here. This rule is going to prevent those investments in the environment. As Dr. Mason noted, in addition it will prevent our investment in higher education.    The first question I have for you is this. As I understand it, the offshore industry, on their own, voluntarily worked on over 100 changes, updates, and safety procedures since the Macondo disaster. Can you just rattle off about five of those for me?</t>
   </si>
   <si>
+    <t>Herbst</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Herbst. Again, it is a good question, and a big part of this rule is about adopting those changes that industry did move quickly on as far as making changes to API and----</t>
   </si>
   <si>
@@ -157,6 +193,12 @@
     <t>412610</t>
   </si>
   <si>
+    <t>Westerman</t>
+  </si>
+  <si>
+    <t>Bruce</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Westerman. Thank you, Mr. Chairman, and thank you to the panel for the informative presentations today.    I am from Arkansas. We don't have much offshore exploration in Arkansas, but I am trying to get up to speed on this as much as possible. I have been reviewing the process, and I notice that BSEE has collaborative agreements with at least 12 other agencies through Memorandums of Understanding, Memorandums of Agreement, and interagency arrangements. It seems like a very cumbersome and complicated process in a lot of areas where regulation takes place on the industry.    Mr. Herbst, you said you were a chemical engineer and a professional engineer. I am also a professional engineer, so I understand a little bit about how technology works. Also, I know as a professional engineer, one of our foremost objectives is to protect the public safety, health, and welfare.    It has been interesting in committee meetings in DC when EPA comes in, who is one of your collaborators in the Federal agencies. They always talk about public health, safety, and welfare. Last week, we had a hearing on the Animus River chemical spill. Through the hearing it was pretty obvious that the EPA was very negligent of their responsibility in protecting the public health, safety, and welfare; and I believe had it been a private company that was as negligent as EPA was, that there would be a huge outcry over that.    When we look at this Well Control Rule, the blowout prevention regulations, they are very prescriptive. To my understanding, there is technology there that is not even proven yet, and these rules were developed by you guys. We heard testimony about how the industry has increased their safety requirements through API rules.    When I was in engineering school, they taught us that when you are writing specifications, you specify results and you don't get real descriptive in your specifications, because when you specify very descriptively, you are actually specifying the design of this equipment. It sounds like you are doing that on the blowout preventers. So with that, you take on the liability of the design.    So, is BSEE prepared to fully warrant or fully back up the blowout preventer designs that they are proposing in the well, and to take full liability for those in case they are put into place and they happen to fail or there are problems with them?</t>
   </si>
   <si>
@@ -178,6 +220,9 @@
     <t xml:space="preserve">    Mr. Leimkuhler. OK.    The Chairman. You are out of time. I am sorry. We will come back again here.    Mr. Smith, it is good to have you back with our committee. You are recognized now for some questions.</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Smith. Thank you, Mr. Chairman. It is a pleasure to be here. It is a pleasure to just be south of the river. I am up from just north of here, in southeastern Missouri. We are right along the Mississippi about 200 miles, so we just have to float down and we are right here.    I am very curious, Mr. Herbst, what is the projected compliance cost of the proposed rule?</t>
   </si>
   <si>
@@ -211,6 +256,9 @@
     <t xml:space="preserve">    Mr. Smith. OK. So right now, we are trying to decide if it is between $880 million or $32 billion in the cost.    I do want to point out to the agency that I would remind them to look at Justice Scalia's opinion in Michigan v. EPA, which was a Supreme Court case this June. In that decision, Justice Scalia was writing the opinion of the court, and it stated, ``The agency must consider cost, including, most importantly, cost of compliance, before describing whether regulation is appropriate and necessary.'' That is the supreme law of the land that was decided in the last week in June of this year, and I hope your agency can decide and understand whether it is $880 million or whether it is $32 billion and whether it is appropriate and necessary when you are looking at the offshore production just here in the Gulf of Mexico being roughly 17 percent, as what my colleague, Mr. Graves from Louisiana, was saying.    I have been here the last few days. We don't have offshore oil drilling in Missouri, but we are very glad that we have it here in the Gulf of Mexico, because it drastically affects the economy for the Nation, and it affects the economy for the world, for that matter. We need to make sure that we have a fair balance between the environment and safety and industry.    I can tell you just from a fishing perspective, being here over the weekend, I have not seen such a great production of fishing. Whenever you look at the No. 1 commercial fishing industry in the continental United States, right here next to the oil rigs, I would say environment and industry is going hand in hand. I would hope that your agency would promote that and not hinder that.    Thank you, Mr. Chairman.    The Chairman. Thank you.    Mr. Rice, good to have you here. You are recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Rice</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rice. Thank you so much. It is my great honor to be here, Mr. Chairman. Thank you for having me.    Mr. Graves, thank you for having me.    I am not on this committee. I am from Myrtle Beach, South Carolina, which is a big tourism area, and we are considering opening the Atlantic offshore for drilling. My community is very concerned about it, which is why I am here, to learn a lot more.    Mr. Henderson, I want to start with you. Is it your position that no offshore drilling is safe? A really quick answer.</t>
   </si>
   <si>
@@ -623,6 +671,9 @@
   </si>
   <si>
     <t xml:space="preserve">    Ms. Davis. It makes it very difficult to plan anything. To the point we talked of earlier, with all these regulations, things that are changing the environment, and all the things that are happening with OPEC, a company like RIG-CHEM can't sustain for much longer. We will go away, and small business will be hurt.    To your point about OPEC, we don't know, we have no way to predict what is going to happen for the future. All I can do is tell my employees every day that we have to keep looking for new opportunities; but with more regulation, that will not happen.    The Chairman. I appreciate that. This area of discussion is so broad, we didn't have a whole lot of time to go into a lot of things. We didn't even go into the exporting ban. But it seems very obvious that OPEC has a unique strategy that they are using to see if they can drive our country into a particular pattern. What scares me is, I think they are successful right now, which is worrisome to me, especially for the potential this country has as far as energy production and the significance of affordable energy in the ability of the entire economy to go forward, as well as how it helps people in their daily lives. If we do not have affordable energy, we don't have a lifestyle that is worth living, and that becomes extremely significant.</t>
+  </si>
+  <si>
+    <t>Lukeheimer--Leimkuhler</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Lukeheimer--Leimkuhler. I am sorry; I am dyslexic. Mr. Leimkuhler--I am not dyslexic, by the way. I just say that.    [Laughter.]    The Chairman. And I forgot the question. No, the same question.</t>
@@ -986,7 +1037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -994,7 +1045,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1016,4661 +1067,5330 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
-      <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s"/>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" t="s"/>
-      <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s"/>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" t="s"/>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" t="s"/>
-      <c r="H7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s"/>
+      <c r="I7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s"/>
+      <c r="I8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G9" t="s"/>
-      <c r="H9" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s"/>
+      <c r="I9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
-      </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G10" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" t="s"/>
+      <c r="I10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G11" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G11" t="s">
+        <v>32</v>
+      </c>
       <c r="H11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s"/>
+      <c r="I12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>14</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>14</v>
-      </c>
-      <c r="G14" t="s"/>
-      <c r="H14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s"/>
+      <c r="I14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>22</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
       <c r="H15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" t="s"/>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" t="s"/>
+      <c r="I16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G17" t="s">
+        <v>32</v>
+      </c>
       <c r="H17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" t="s"/>
-      <c r="H18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" t="s"/>
+      <c r="I18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
       <c r="H19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
-      <c r="H20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" t="s"/>
+      <c r="I20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>22</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G21" t="s">
+        <v>32</v>
+      </c>
       <c r="H21" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="I21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
-      <c r="H22" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>29</v>
+      </c>
+      <c r="H22" t="s"/>
+      <c r="I22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>22</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
       <c r="H23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G27" t="s">
+        <v>48</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G29" t="s">
+        <v>25</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G31" t="s">
+        <v>25</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>14</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G33" t="s">
+        <v>25</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>46</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G34" t="s">
+        <v>59</v>
+      </c>
       <c r="H34" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I34" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>14</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
+        <v>17</v>
+      </c>
+      <c r="G35" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G36" t="s">
+        <v>59</v>
+      </c>
       <c r="H36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G37" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G38" t="s">
+        <v>59</v>
+      </c>
       <c r="H38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G39" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>14</v>
-      </c>
-      <c r="G40" t="s"/>
-      <c r="H40" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" t="s"/>
+      <c r="I40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>14</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>14</v>
-      </c>
-      <c r="G42" t="s"/>
-      <c r="H42" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="H42" t="s"/>
+      <c r="I42" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
-      <c r="H43" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>68</v>
+      </c>
+      <c r="H43" t="s"/>
+      <c r="I43" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>14</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G44" t="s">
+        <v>48</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
-      <c r="H45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>68</v>
+      </c>
+      <c r="H45" t="s"/>
+      <c r="I45" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>14</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G46" t="s">
+        <v>48</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s"/>
-      <c r="H47" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>68</v>
+      </c>
+      <c r="H47" t="s"/>
+      <c r="I47" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>14</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
-      <c r="H49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>68</v>
+      </c>
+      <c r="H49" t="s"/>
+      <c r="I49" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
-      <c r="H50" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>48</v>
+      </c>
+      <c r="H50" t="s"/>
+      <c r="I50" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>14</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G51" t="s">
+        <v>68</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
-      <c r="H52" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>80</v>
+      </c>
+      <c r="H52" t="s"/>
+      <c r="I52" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>14</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G53" t="s">
+        <v>25</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
-      <c r="H54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>80</v>
+      </c>
+      <c r="H54" t="s"/>
+      <c r="I54" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
-      <c r="H56" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>80</v>
+      </c>
+      <c r="H56" t="s"/>
+      <c r="I56" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>14</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G57" t="s">
+        <v>25</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
-      <c r="H58" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>80</v>
+      </c>
+      <c r="H58" t="s"/>
+      <c r="I58" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>14</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G59" t="s">
+        <v>25</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
-      <c r="H60" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>80</v>
+      </c>
+      <c r="H60" t="s"/>
+      <c r="I60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s"/>
-      <c r="H61" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>48</v>
+      </c>
+      <c r="H61" t="s"/>
+      <c r="I61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>14</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G62" t="s">
+        <v>80</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s"/>
-      <c r="H63" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>48</v>
+      </c>
+      <c r="H63" t="s"/>
+      <c r="I63" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>14</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>80</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s"/>
-      <c r="H65" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" t="s"/>
+      <c r="I65" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>14</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G66" t="s">
+        <v>80</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s"/>
-      <c r="H67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" t="s"/>
+      <c r="I67" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>80</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s"/>
-      <c r="H69" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>27</v>
+      </c>
+      <c r="H69" t="s"/>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>14</v>
-      </c>
-      <c r="G70" t="s"/>
-      <c r="H70" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G70" t="s">
+        <v>80</v>
+      </c>
+      <c r="H70" t="s"/>
+      <c r="I70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>14</v>
-      </c>
-      <c r="G71" t="s"/>
-      <c r="H71" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G71" t="s">
+        <v>23</v>
+      </c>
+      <c r="H71" t="s"/>
+      <c r="I71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>14</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G72" t="s">
+        <v>80</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>14</v>
-      </c>
-      <c r="G73" t="s"/>
-      <c r="H73" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G73" t="s">
+        <v>23</v>
+      </c>
+      <c r="H73" t="s"/>
+      <c r="I73" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>14</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G74" t="s">
+        <v>80</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>14</v>
-      </c>
-      <c r="G75" t="s"/>
-      <c r="H75" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G75" t="s">
+        <v>23</v>
+      </c>
+      <c r="H75" t="s"/>
+      <c r="I75" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>14</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G76" t="s">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>14</v>
-      </c>
-      <c r="G77" t="s"/>
-      <c r="H77" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G77" t="s">
+        <v>23</v>
+      </c>
+      <c r="H77" t="s"/>
+      <c r="I77" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>14</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G78" t="s">
+        <v>80</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>14</v>
-      </c>
-      <c r="G79" t="s"/>
-      <c r="H79" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G79" t="s">
+        <v>48</v>
+      </c>
+      <c r="H79" t="s"/>
+      <c r="I79" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>14</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>14</v>
-      </c>
-      <c r="G81" t="s"/>
-      <c r="H81" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G81" t="s">
+        <v>48</v>
+      </c>
+      <c r="H81" t="s"/>
+      <c r="I81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>14</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G82" t="s">
+        <v>80</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>14</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G83" t="s">
+        <v>48</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>14</v>
-      </c>
-      <c r="G84" t="s"/>
-      <c r="H84" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G84" t="s">
+        <v>80</v>
+      </c>
+      <c r="H84" t="s"/>
+      <c r="I84" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>14</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G85" t="s">
+        <v>25</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>14</v>
-      </c>
-      <c r="G86" t="s"/>
-      <c r="H86" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G86" t="s">
+        <v>80</v>
+      </c>
+      <c r="H86" t="s"/>
+      <c r="I86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>14</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G87" t="s">
+        <v>25</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>14</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G88" t="s">
+        <v>80</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>14</v>
-      </c>
-      <c r="G89" t="s"/>
-      <c r="H89" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>23</v>
+      </c>
+      <c r="H89" t="s"/>
+      <c r="I89" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>14</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G90" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>14</v>
-      </c>
-      <c r="G91" t="s"/>
-      <c r="H91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G91" t="s">
+        <v>27</v>
+      </c>
+      <c r="H91" t="s"/>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>14</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G92" t="s">
+        <v>80</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>14</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G93" t="s">
+        <v>29</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
-      </c>
-      <c r="G94" t="s"/>
-      <c r="H94" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G94" t="s">
+        <v>80</v>
+      </c>
+      <c r="H94" t="s"/>
+      <c r="I94" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>14</v>
-      </c>
-      <c r="G95" t="s"/>
-      <c r="H95" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G95" t="s">
+        <v>48</v>
+      </c>
+      <c r="H95" t="s"/>
+      <c r="I95" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>14</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G96" t="s">
+        <v>80</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>14</v>
-      </c>
-      <c r="G97" t="s"/>
-      <c r="H97" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G97" t="s">
+        <v>25</v>
+      </c>
+      <c r="H97" t="s"/>
+      <c r="I97" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>14</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G98" t="s">
+        <v>80</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>14</v>
-      </c>
-      <c r="G99" t="s"/>
-      <c r="H99" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>25</v>
+      </c>
+      <c r="H99" t="s"/>
+      <c r="I99" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>14</v>
-      </c>
-      <c r="G100" t="s"/>
-      <c r="H100" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>27</v>
+      </c>
+      <c r="H100" t="s"/>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>14</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>27</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>14</v>
-      </c>
-      <c r="G102" t="s"/>
-      <c r="H102" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>23</v>
+      </c>
+      <c r="H102" t="s"/>
+      <c r="I102" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>14</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>23</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
-      </c>
-      <c r="G104" t="s"/>
-      <c r="H104" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G104" t="s">
+        <v>29</v>
+      </c>
+      <c r="H104" t="s"/>
+      <c r="I104" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>14</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G105" t="s">
+        <v>29</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>14</v>
-      </c>
-      <c r="G106" t="s"/>
-      <c r="H106" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G106" t="s">
+        <v>29</v>
+      </c>
+      <c r="H106" t="s"/>
+      <c r="I106" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>22</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G107" t="s">
+        <v>32</v>
+      </c>
       <c r="H107" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>14</v>
-      </c>
-      <c r="G108" t="s"/>
-      <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G108" t="s">
+        <v>23</v>
+      </c>
+      <c r="H108" t="s"/>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>22</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G109" t="s">
+        <v>32</v>
+      </c>
       <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>14</v>
-      </c>
-      <c r="G110" t="s"/>
-      <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G110" t="s">
+        <v>23</v>
+      </c>
+      <c r="H110" t="s"/>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>22</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G111" t="s">
+        <v>32</v>
+      </c>
       <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>14</v>
-      </c>
-      <c r="G112" t="s"/>
-      <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G112" t="s">
+        <v>48</v>
+      </c>
+      <c r="H112" t="s"/>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>22</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G113" t="s">
+        <v>32</v>
+      </c>
       <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>14</v>
-      </c>
-      <c r="G114" t="s"/>
-      <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G114" t="s">
+        <v>48</v>
+      </c>
+      <c r="H114" t="s"/>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>22</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>31</v>
+      </c>
+      <c r="G115" t="s">
+        <v>32</v>
+      </c>
       <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>33</v>
+      </c>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>48</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>14</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G119" t="s">
+        <v>48</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>11</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G120" t="s">
+        <v>13</v>
+      </c>
       <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>14</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G121" t="s">
+        <v>48</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>11</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G122" t="s">
+        <v>13</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I122" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>14</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G123" t="s">
+        <v>29</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G124" t="s">
+        <v>13</v>
+      </c>
       <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I124" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>14</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G125" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>14</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G127" t="s">
+        <v>23</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>11</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G128" t="s">
+        <v>13</v>
+      </c>
       <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I128" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>14</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G129" t="s">
+        <v>25</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>11</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G130" t="s">
+        <v>13</v>
+      </c>
       <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I130" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>14</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G131" t="s">
+        <v>48</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G132" t="s">
+        <v>13</v>
+      </c>
       <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>14</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G133" t="s">
+        <v>48</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>11</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>13</v>
+      </c>
       <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I134" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>14</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G135" t="s">
+        <v>48</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>46</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G137" t="s">
+        <v>59</v>
+      </c>
       <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I137" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>14</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G138" t="s">
+        <v>29</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G139" t="s">
+        <v>59</v>
+      </c>
       <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I139" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G140" t="s">
+        <v>29</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>46</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G141" t="s">
+        <v>59</v>
+      </c>
       <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I141" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>14</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G142" t="s">
+        <v>23</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>46</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G143" t="s">
+        <v>59</v>
+      </c>
       <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I143" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>14</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G144" t="s">
+        <v>23</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G145" t="s">
+        <v>59</v>
+      </c>
       <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I145" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>14</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>27</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G147" t="s">
+        <v>59</v>
+      </c>
       <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I147" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>14</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>27</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>46</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G149" t="s">
+        <v>59</v>
+      </c>
       <c r="H149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I149" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>14</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G150" t="s">
+        <v>48</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>46</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>58</v>
+      </c>
+      <c r="G151" t="s">
+        <v>59</v>
+      </c>
       <c r="H151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>60</v>
+      </c>
+      <c r="I151" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s"/>
-      <c r="H152" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>68</v>
+      </c>
+      <c r="H152" t="s"/>
+      <c r="I152" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>14</v>
-      </c>
-      <c r="G153" t="s"/>
-      <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G153" t="s">
+        <v>48</v>
+      </c>
+      <c r="H153" t="s"/>
+      <c r="I153" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s"/>
-      <c r="H154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>68</v>
+      </c>
+      <c r="H154" t="s"/>
+      <c r="I154" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>14</v>
-      </c>
-      <c r="G155" t="s"/>
-      <c r="H155" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G155" t="s">
+        <v>48</v>
+      </c>
+      <c r="H155" t="s"/>
+      <c r="I155" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s"/>
-      <c r="H156" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G156" t="s">
+        <v>68</v>
+      </c>
+      <c r="H156" t="s"/>
+      <c r="I156" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>14</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G157" t="s">
+        <v>48</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>14</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G158" t="s">
+        <v>68</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s"/>
-      <c r="H159" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
+        <v>48</v>
+      </c>
+      <c r="H159" t="s"/>
+      <c r="I159" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>14</v>
-      </c>
-      <c r="G160" t="s"/>
-      <c r="H160" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G160" t="s">
+        <v>68</v>
+      </c>
+      <c r="H160" t="s"/>
+      <c r="I160" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>14</v>
-      </c>
-      <c r="G161" t="s"/>
-      <c r="H161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G161" t="s">
+        <v>48</v>
+      </c>
+      <c r="H161" t="s"/>
+      <c r="I161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>14</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G162" t="s">
+        <v>68</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>14</v>
-      </c>
-      <c r="G163" t="s"/>
-      <c r="H163" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G163" t="s">
+        <v>48</v>
+      </c>
+      <c r="H163" t="s"/>
+      <c r="I163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>14</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G164" t="s">
+        <v>68</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>14</v>
-      </c>
-      <c r="G165" t="s"/>
-      <c r="H165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G165" t="s">
+        <v>48</v>
+      </c>
+      <c r="H165" t="s"/>
+      <c r="I165" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>14</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G166" t="s">
+        <v>68</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>14</v>
-      </c>
-      <c r="G167" t="s"/>
-      <c r="H167" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G167" t="s">
+        <v>48</v>
+      </c>
+      <c r="H167" t="s"/>
+      <c r="I167" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>14</v>
-      </c>
-      <c r="G168" t="s"/>
-      <c r="H168" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G168" t="s">
+        <v>68</v>
+      </c>
+      <c r="H168" t="s"/>
+      <c r="I168" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>14</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G169" t="s">
+        <v>80</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>14</v>
-      </c>
-      <c r="G170" t="s"/>
-      <c r="H170" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G170" t="s">
+        <v>48</v>
+      </c>
+      <c r="H170" t="s"/>
+      <c r="I170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>14</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G171" t="s">
+        <v>80</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>14</v>
-      </c>
-      <c r="G172" t="s"/>
-      <c r="H172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G172" t="s">
+        <v>48</v>
+      </c>
+      <c r="H172" t="s"/>
+      <c r="I172" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>14</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G173" t="s">
+        <v>80</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>14</v>
-      </c>
-      <c r="G174" t="s"/>
-      <c r="H174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G174" t="s">
+        <v>48</v>
+      </c>
+      <c r="H174" t="s"/>
+      <c r="I174" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>14</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G175" t="s">
+        <v>80</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>14</v>
-      </c>
-      <c r="G176" t="s"/>
-      <c r="H176" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G176" t="s">
+        <v>48</v>
+      </c>
+      <c r="H176" t="s"/>
+      <c r="I176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>14</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G177" t="s">
+        <v>80</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>14</v>
-      </c>
-      <c r="G178" t="s"/>
-      <c r="H178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G178" t="s">
+        <v>23</v>
+      </c>
+      <c r="H178" t="s"/>
+      <c r="I178" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>14</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G179" t="s">
+        <v>80</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>14</v>
-      </c>
-      <c r="G180" t="s"/>
-      <c r="H180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G180" t="s">
+        <v>23</v>
+      </c>
+      <c r="H180" t="s"/>
+      <c r="I180" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>14</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G181" t="s">
+        <v>80</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>14</v>
-      </c>
-      <c r="G182" t="s"/>
-      <c r="H182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G182" t="s">
+        <v>27</v>
+      </c>
+      <c r="H182" t="s"/>
+      <c r="I182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>14</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G183" t="s">
+        <v>80</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>14</v>
-      </c>
-      <c r="G184" t="s"/>
-      <c r="H184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G184" t="s">
+        <v>48</v>
+      </c>
+      <c r="H184" t="s"/>
+      <c r="I184" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>14</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G185" t="s">
+        <v>80</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>14</v>
-      </c>
-      <c r="G186" t="s"/>
-      <c r="H186" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G186" t="s">
+        <v>48</v>
+      </c>
+      <c r="H186" t="s"/>
+      <c r="I186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>14</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G187" t="s">
+        <v>48</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>14</v>
-      </c>
-      <c r="G188" t="s"/>
-      <c r="H188" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G188" t="s">
+        <v>29</v>
+      </c>
+      <c r="H188" t="s"/>
+      <c r="I188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>14</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G189" t="s">
+        <v>29</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>14</v>
-      </c>
-      <c r="G190" t="s"/>
-      <c r="H190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G190" t="s">
+        <v>27</v>
+      </c>
+      <c r="H190" t="s"/>
+      <c r="I190" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>14</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G191" t="s">
+        <v>219</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>14</v>
-      </c>
-      <c r="G192" t="s"/>
-      <c r="H192" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G192" t="s">
+        <v>23</v>
+      </c>
+      <c r="H192" t="s"/>
+      <c r="I192" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>14</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>17</v>
+      </c>
+      <c r="G193" t="s">
+        <v>23</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>11</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G194" t="s">
+        <v>13</v>
+      </c>
       <c r="H194" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I194" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
-      </c>
-      <c r="G195" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G195" t="s">
+        <v>13</v>
+      </c>
       <c r="H195" t="s">
-        <v>207</v>
+        <v>14</v>
+      </c>
+      <c r="I195" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg96241.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg96241.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -53,6 +56,9 @@
   </si>
   <si>
     <t>412631</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Graves</t>
@@ -1037,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I195"/>
+  <dimension ref="A1:J195"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1045,7 +1051,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1070,5327 +1076,5608 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" t="s"/>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" t="s"/>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
-      </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" t="s"/>
-      <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" t="s"/>
-      <c r="I6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s"/>
+      <c r="H6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="I6" t="s"/>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H7" t="s"/>
-      <c r="I7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
-      </c>
-      <c r="G8" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" t="s"/>
-      <c r="I8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G8" t="s"/>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s"/>
+      <c r="J8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>17</v>
-      </c>
-      <c r="G9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" t="s"/>
-      <c r="I9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-      <c r="G10" t="s">
-        <v>29</v>
-      </c>
-      <c r="H10" t="s"/>
-      <c r="I10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G10" t="s"/>
+      <c r="H10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s"/>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I11" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="H12" t="s"/>
-      <c r="I12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s"/>
+      <c r="H12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" t="s"/>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" t="s">
-        <v>23</v>
-      </c>
-      <c r="H14" t="s"/>
-      <c r="I14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G14" t="s"/>
+      <c r="H14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I14" t="s"/>
+      <c r="J14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" t="s">
-        <v>23</v>
-      </c>
-      <c r="H16" t="s"/>
-      <c r="I16" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G16" t="s"/>
+      <c r="H16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s"/>
+      <c r="J16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>17</v>
-      </c>
-      <c r="G18" t="s">
-        <v>23</v>
-      </c>
-      <c r="H18" t="s"/>
-      <c r="I18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G18" t="s"/>
+      <c r="H18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" t="s"/>
+      <c r="J18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
-      </c>
-      <c r="G20" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" t="s"/>
-      <c r="I20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G20" t="s"/>
+      <c r="H20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" t="s"/>
+      <c r="J20" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
-      </c>
-      <c r="G22" t="s">
-        <v>29</v>
-      </c>
-      <c r="H22" t="s"/>
-      <c r="I22" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G22" t="s"/>
+      <c r="H22" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" t="s"/>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G23" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
-      </c>
-      <c r="G25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
-      </c>
-      <c r="G27" t="s">
-        <v>48</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>50</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>17</v>
-      </c>
-      <c r="G29" t="s">
-        <v>25</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>17</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>27</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>17</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>27</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G34" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I34" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>17</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I36" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J36" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>17</v>
-      </c>
-      <c r="G37" t="s">
-        <v>23</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G38" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I38" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>17</v>
-      </c>
-      <c r="G39" t="s">
-        <v>23</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>25</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
-      </c>
-      <c r="G40" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" t="s"/>
-      <c r="I40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G40" t="s"/>
+      <c r="H40" t="s">
+        <v>25</v>
+      </c>
+      <c r="I40" t="s"/>
+      <c r="J40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>17</v>
-      </c>
-      <c r="G41" t="s">
-        <v>68</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>70</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>17</v>
-      </c>
-      <c r="G42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" t="s"/>
-      <c r="I42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G42" t="s"/>
+      <c r="H42" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" t="s"/>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
-      </c>
-      <c r="G43" t="s">
-        <v>68</v>
-      </c>
-      <c r="H43" t="s"/>
-      <c r="I43" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>70</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>17</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>50</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
-      </c>
-      <c r="G45" t="s">
-        <v>68</v>
-      </c>
-      <c r="H45" t="s"/>
-      <c r="I45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G45" t="s"/>
+      <c r="H45" t="s">
+        <v>70</v>
+      </c>
+      <c r="I45" t="s"/>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>17</v>
-      </c>
-      <c r="G46" t="s">
-        <v>48</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>50</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
-      </c>
-      <c r="G47" t="s">
-        <v>68</v>
-      </c>
-      <c r="H47" t="s"/>
-      <c r="I47" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>17</v>
-      </c>
-      <c r="G48" t="s">
-        <v>48</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
-      </c>
-      <c r="G49" t="s">
-        <v>68</v>
-      </c>
-      <c r="H49" t="s"/>
-      <c r="I49" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>70</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
-      </c>
-      <c r="G50" t="s">
-        <v>48</v>
-      </c>
-      <c r="H50" t="s"/>
-      <c r="I50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>50</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" t="s">
-        <v>68</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
-      </c>
-      <c r="G52" t="s">
-        <v>80</v>
-      </c>
-      <c r="H52" t="s"/>
-      <c r="I52" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>82</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>17</v>
-      </c>
-      <c r="G53" t="s">
-        <v>25</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>27</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
-      </c>
-      <c r="G54" t="s">
-        <v>80</v>
-      </c>
-      <c r="H54" t="s"/>
-      <c r="I54" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>82</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" t="s">
-        <v>25</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>27</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
-      </c>
-      <c r="G56" t="s">
-        <v>80</v>
-      </c>
-      <c r="H56" t="s"/>
-      <c r="I56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G56" t="s"/>
+      <c r="H56" t="s">
+        <v>82</v>
+      </c>
+      <c r="I56" t="s"/>
+      <c r="J56" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>17</v>
-      </c>
-      <c r="G57" t="s">
-        <v>25</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>27</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
-      </c>
-      <c r="G58" t="s">
-        <v>80</v>
-      </c>
-      <c r="H58" t="s"/>
-      <c r="I58" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>82</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>17</v>
-      </c>
-      <c r="G59" t="s">
-        <v>25</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>27</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
-      </c>
-      <c r="G60" t="s">
-        <v>80</v>
-      </c>
-      <c r="H60" t="s"/>
-      <c r="I60" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G60" t="s"/>
+      <c r="H60" t="s">
+        <v>82</v>
+      </c>
+      <c r="I60" t="s"/>
+      <c r="J60" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
-      </c>
-      <c r="G61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" t="s"/>
-      <c r="I61" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G61" t="s"/>
+      <c r="H61" t="s">
+        <v>50</v>
+      </c>
+      <c r="I61" t="s"/>
+      <c r="J61" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>17</v>
-      </c>
-      <c r="G62" t="s">
-        <v>80</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>82</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
-      </c>
-      <c r="G63" t="s">
-        <v>48</v>
-      </c>
-      <c r="H63" t="s"/>
-      <c r="I63" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
+        <v>50</v>
+      </c>
+      <c r="I63" t="s"/>
+      <c r="J63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
-      </c>
-      <c r="G64" t="s">
-        <v>80</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>82</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
-      </c>
-      <c r="G65" t="s">
-        <v>27</v>
-      </c>
-      <c r="H65" t="s"/>
-      <c r="I65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G65" t="s"/>
+      <c r="H65" t="s">
+        <v>29</v>
+      </c>
+      <c r="I65" t="s"/>
+      <c r="J65" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>17</v>
-      </c>
-      <c r="G66" t="s">
-        <v>80</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>82</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
-      </c>
-      <c r="G67" t="s">
-        <v>27</v>
-      </c>
-      <c r="H67" t="s"/>
-      <c r="I67" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G67" t="s"/>
+      <c r="H67" t="s">
+        <v>29</v>
+      </c>
+      <c r="I67" t="s"/>
+      <c r="J67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
-      </c>
-      <c r="G68" t="s">
-        <v>80</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>82</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
-      </c>
-      <c r="G69" t="s">
-        <v>27</v>
-      </c>
-      <c r="H69" t="s"/>
-      <c r="I69" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G69" t="s"/>
+      <c r="H69" t="s">
+        <v>29</v>
+      </c>
+      <c r="I69" t="s"/>
+      <c r="J69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>17</v>
-      </c>
-      <c r="G70" t="s">
-        <v>80</v>
-      </c>
-      <c r="H70" t="s"/>
-      <c r="I70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>82</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>17</v>
-      </c>
-      <c r="G71" t="s">
-        <v>23</v>
-      </c>
-      <c r="H71" t="s"/>
-      <c r="I71" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G71" t="s"/>
+      <c r="H71" t="s">
+        <v>25</v>
+      </c>
+      <c r="I71" t="s"/>
+      <c r="J71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>17</v>
-      </c>
-      <c r="G72" t="s">
-        <v>80</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>82</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>17</v>
-      </c>
-      <c r="G73" t="s">
-        <v>23</v>
-      </c>
-      <c r="H73" t="s"/>
-      <c r="I73" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s"/>
+      <c r="J73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>17</v>
-      </c>
-      <c r="G74" t="s">
-        <v>80</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>82</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>17</v>
-      </c>
-      <c r="G75" t="s">
-        <v>23</v>
-      </c>
-      <c r="H75" t="s"/>
-      <c r="I75" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G75" t="s"/>
+      <c r="H75" t="s">
+        <v>25</v>
+      </c>
+      <c r="I75" t="s"/>
+      <c r="J75" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>17</v>
-      </c>
-      <c r="G76" t="s">
-        <v>80</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>82</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>17</v>
-      </c>
-      <c r="G77" t="s">
-        <v>23</v>
-      </c>
-      <c r="H77" t="s"/>
-      <c r="I77" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
+        <v>25</v>
+      </c>
+      <c r="I77" t="s"/>
+      <c r="J77" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>17</v>
-      </c>
-      <c r="G78" t="s">
-        <v>80</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>82</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>17</v>
-      </c>
-      <c r="G79" t="s">
-        <v>48</v>
-      </c>
-      <c r="H79" t="s"/>
-      <c r="I79" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G79" t="s"/>
+      <c r="H79" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" t="s"/>
+      <c r="J79" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>17</v>
-      </c>
-      <c r="G80" t="s">
-        <v>80</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>82</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>17</v>
-      </c>
-      <c r="G81" t="s">
-        <v>48</v>
-      </c>
-      <c r="H81" t="s"/>
-      <c r="I81" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>50</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>17</v>
-      </c>
-      <c r="G82" t="s">
-        <v>80</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>82</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>17</v>
-      </c>
-      <c r="G83" t="s">
-        <v>48</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>50</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>17</v>
-      </c>
-      <c r="G84" t="s">
-        <v>80</v>
-      </c>
-      <c r="H84" t="s"/>
-      <c r="I84" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>82</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G85" t="s">
-        <v>25</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>27</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G86" t="s">
-        <v>80</v>
-      </c>
-      <c r="H86" t="s"/>
-      <c r="I86" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>82</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>17</v>
-      </c>
-      <c r="G87" t="s">
-        <v>25</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>27</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" t="s">
-        <v>80</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>82</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" t="s">
-        <v>23</v>
-      </c>
-      <c r="H89" t="s"/>
-      <c r="I89" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
+        <v>25</v>
+      </c>
+      <c r="I89" t="s"/>
+      <c r="J89" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>17</v>
-      </c>
-      <c r="G90" t="s">
-        <v>80</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>82</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>17</v>
-      </c>
-      <c r="G91" t="s">
-        <v>27</v>
-      </c>
-      <c r="H91" t="s"/>
-      <c r="I91" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G91" t="s"/>
+      <c r="H91" t="s">
+        <v>29</v>
+      </c>
+      <c r="I91" t="s"/>
+      <c r="J91" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>17</v>
-      </c>
-      <c r="G92" t="s">
-        <v>80</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>82</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>17</v>
-      </c>
-      <c r="G93" t="s">
-        <v>29</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>31</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>17</v>
-      </c>
-      <c r="G94" t="s">
-        <v>80</v>
-      </c>
-      <c r="H94" t="s"/>
-      <c r="I94" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>82</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>17</v>
-      </c>
-      <c r="G95" t="s">
-        <v>48</v>
-      </c>
-      <c r="H95" t="s"/>
-      <c r="I95" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G95" t="s"/>
+      <c r="H95" t="s">
+        <v>50</v>
+      </c>
+      <c r="I95" t="s"/>
+      <c r="J95" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>17</v>
-      </c>
-      <c r="G96" t="s">
-        <v>80</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>82</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>17</v>
-      </c>
-      <c r="G97" t="s">
-        <v>25</v>
-      </c>
-      <c r="H97" t="s"/>
-      <c r="I97" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G97" t="s"/>
+      <c r="H97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I97" t="s"/>
+      <c r="J97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>17</v>
-      </c>
-      <c r="G98" t="s">
-        <v>80</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>82</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>17</v>
-      </c>
-      <c r="G99" t="s">
-        <v>25</v>
-      </c>
-      <c r="H99" t="s"/>
-      <c r="I99" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G99" t="s"/>
+      <c r="H99" t="s">
+        <v>27</v>
+      </c>
+      <c r="I99" t="s"/>
+      <c r="J99" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>17</v>
-      </c>
-      <c r="G100" t="s">
-        <v>27</v>
-      </c>
-      <c r="H100" t="s"/>
-      <c r="I100" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G100" t="s"/>
+      <c r="H100" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" t="s"/>
+      <c r="J100" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>17</v>
-      </c>
-      <c r="G101" t="s">
-        <v>27</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>29</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>17</v>
-      </c>
-      <c r="G102" t="s">
-        <v>23</v>
-      </c>
-      <c r="H102" t="s"/>
-      <c r="I102" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s"/>
+      <c r="H102" t="s">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s"/>
+      <c r="J102" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>17</v>
-      </c>
-      <c r="G103" t="s">
-        <v>23</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>25</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>17</v>
-      </c>
-      <c r="G104" t="s">
-        <v>29</v>
-      </c>
-      <c r="H104" t="s"/>
-      <c r="I104" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G104" t="s"/>
+      <c r="H104" t="s">
+        <v>31</v>
+      </c>
+      <c r="I104" t="s"/>
+      <c r="J104" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>17</v>
-      </c>
-      <c r="G105" t="s">
-        <v>29</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>31</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>17</v>
-      </c>
-      <c r="G106" t="s">
-        <v>29</v>
-      </c>
-      <c r="H106" t="s"/>
-      <c r="I106" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>31</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G107" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I107" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J107" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>17</v>
-      </c>
-      <c r="G108" t="s">
-        <v>23</v>
-      </c>
-      <c r="H108" t="s"/>
-      <c r="I108" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G108" t="s"/>
+      <c r="H108" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" t="s"/>
+      <c r="J108" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G109" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H109" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I109" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J109" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>17</v>
-      </c>
-      <c r="G110" t="s">
-        <v>23</v>
-      </c>
-      <c r="H110" t="s"/>
-      <c r="I110" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s"/>
+      <c r="H110" t="s">
+        <v>25</v>
+      </c>
+      <c r="I110" t="s"/>
+      <c r="J110" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G111" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I111" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J111" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>17</v>
-      </c>
-      <c r="G112" t="s">
-        <v>48</v>
-      </c>
-      <c r="H112" t="s"/>
-      <c r="I112" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>50</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G113" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I113" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J113" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>17</v>
-      </c>
-      <c r="G114" t="s">
-        <v>48</v>
-      </c>
-      <c r="H114" t="s"/>
-      <c r="I114" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s"/>
+      <c r="H114" t="s">
+        <v>50</v>
+      </c>
+      <c r="I114" t="s"/>
+      <c r="J114" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G115" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I115" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>35</v>
+      </c>
+      <c r="J115" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
-      </c>
-      <c r="G117" t="s">
-        <v>48</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>50</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>17</v>
-      </c>
-      <c r="G119" t="s">
-        <v>48</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>50</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G120" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H120" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I120" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>17</v>
-      </c>
-      <c r="G121" t="s">
-        <v>48</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>50</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G122" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H122" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I122" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J122" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>17</v>
-      </c>
-      <c r="G123" t="s">
-        <v>29</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>31</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G124" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H124" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I124" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J124" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>17</v>
-      </c>
-      <c r="G125" t="s">
-        <v>29</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>31</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>17</v>
-      </c>
-      <c r="G127" t="s">
-        <v>23</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>25</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G128" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H128" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I128" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>17</v>
-      </c>
-      <c r="G129" t="s">
-        <v>25</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>27</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G130" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H130" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I130" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J130" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>17</v>
-      </c>
-      <c r="G131" t="s">
-        <v>48</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>50</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I132" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J132" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>17</v>
-      </c>
-      <c r="G133" t="s">
-        <v>48</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>50</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G134" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H134" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I134" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J134" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>17</v>
-      </c>
-      <c r="G135" t="s">
-        <v>48</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>50</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G137" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I137" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J137" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>17</v>
-      </c>
-      <c r="G138" t="s">
-        <v>29</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>31</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G139" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I139" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J139" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>17</v>
-      </c>
-      <c r="G140" t="s">
-        <v>29</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>31</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G141" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I141" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J141" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>17</v>
-      </c>
-      <c r="G142" t="s">
-        <v>23</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>25</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G143" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I143" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J143" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>17</v>
-      </c>
-      <c r="G144" t="s">
-        <v>23</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>25</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G145" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I145" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J145" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>17</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>29</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G147" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I147" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J147" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>17</v>
-      </c>
-      <c r="G148" t="s">
-        <v>27</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>29</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G149" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I149" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J149" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>17</v>
-      </c>
-      <c r="G150" t="s">
-        <v>48</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>50</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="G151" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I151" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>62</v>
+      </c>
+      <c r="J151" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
-      </c>
-      <c r="G152" t="s">
-        <v>68</v>
-      </c>
-      <c r="H152" t="s"/>
-      <c r="I152" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>70</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>17</v>
-      </c>
-      <c r="G153" t="s">
-        <v>48</v>
-      </c>
-      <c r="H153" t="s"/>
-      <c r="I153" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>50</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
-      </c>
-      <c r="G154" t="s">
-        <v>68</v>
-      </c>
-      <c r="H154" t="s"/>
-      <c r="I154" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>70</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>17</v>
-      </c>
-      <c r="G155" t="s">
-        <v>48</v>
-      </c>
-      <c r="H155" t="s"/>
-      <c r="I155" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>50</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
-      </c>
-      <c r="G156" t="s">
-        <v>68</v>
-      </c>
-      <c r="H156" t="s"/>
-      <c r="I156" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>70</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>17</v>
-      </c>
-      <c r="G157" t="s">
-        <v>48</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>50</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>17</v>
-      </c>
-      <c r="G158" t="s">
-        <v>68</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
-      </c>
-      <c r="G159" t="s">
-        <v>48</v>
-      </c>
-      <c r="H159" t="s"/>
-      <c r="I159" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G159" t="s"/>
+      <c r="H159" t="s">
+        <v>50</v>
+      </c>
+      <c r="I159" t="s"/>
+      <c r="J159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>17</v>
-      </c>
-      <c r="G160" t="s">
-        <v>68</v>
-      </c>
-      <c r="H160" t="s"/>
-      <c r="I160" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G160" t="s"/>
+      <c r="H160" t="s">
+        <v>70</v>
+      </c>
+      <c r="I160" t="s"/>
+      <c r="J160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>17</v>
-      </c>
-      <c r="G161" t="s">
-        <v>48</v>
-      </c>
-      <c r="H161" t="s"/>
-      <c r="I161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G161" t="s"/>
+      <c r="H161" t="s">
+        <v>50</v>
+      </c>
+      <c r="I161" t="s"/>
+      <c r="J161" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>17</v>
-      </c>
-      <c r="G162" t="s">
-        <v>68</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>70</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>17</v>
-      </c>
-      <c r="G163" t="s">
-        <v>48</v>
-      </c>
-      <c r="H163" t="s"/>
-      <c r="I163" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G163" t="s"/>
+      <c r="H163" t="s">
+        <v>50</v>
+      </c>
+      <c r="I163" t="s"/>
+      <c r="J163" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>17</v>
-      </c>
-      <c r="G164" t="s">
-        <v>68</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>70</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" t="s">
-        <v>48</v>
-      </c>
-      <c r="H165" t="s"/>
-      <c r="I165" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G165" t="s"/>
+      <c r="H165" t="s">
+        <v>50</v>
+      </c>
+      <c r="I165" t="s"/>
+      <c r="J165" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>17</v>
-      </c>
-      <c r="G166" t="s">
-        <v>68</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>70</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>17</v>
-      </c>
-      <c r="G167" t="s">
-        <v>48</v>
-      </c>
-      <c r="H167" t="s"/>
-      <c r="I167" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G167" t="s"/>
+      <c r="H167" t="s">
+        <v>50</v>
+      </c>
+      <c r="I167" t="s"/>
+      <c r="J167" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>17</v>
-      </c>
-      <c r="G168" t="s">
-        <v>68</v>
-      </c>
-      <c r="H168" t="s"/>
-      <c r="I168" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G168" t="s"/>
+      <c r="H168" t="s">
+        <v>70</v>
+      </c>
+      <c r="I168" t="s"/>
+      <c r="J168" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>17</v>
-      </c>
-      <c r="G169" t="s">
-        <v>80</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>82</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" t="s">
-        <v>48</v>
-      </c>
-      <c r="H170" t="s"/>
-      <c r="I170" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
+        <v>50</v>
+      </c>
+      <c r="I170" t="s"/>
+      <c r="J170" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>17</v>
-      </c>
-      <c r="G171" t="s">
-        <v>80</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>82</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>17</v>
-      </c>
-      <c r="G172" t="s">
-        <v>48</v>
-      </c>
-      <c r="H172" t="s"/>
-      <c r="I172" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G172" t="s"/>
+      <c r="H172" t="s">
+        <v>50</v>
+      </c>
+      <c r="I172" t="s"/>
+      <c r="J172" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>17</v>
-      </c>
-      <c r="G173" t="s">
-        <v>80</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>82</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>17</v>
-      </c>
-      <c r="G174" t="s">
-        <v>48</v>
-      </c>
-      <c r="H174" t="s"/>
-      <c r="I174" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G174" t="s"/>
+      <c r="H174" t="s">
+        <v>50</v>
+      </c>
+      <c r="I174" t="s"/>
+      <c r="J174" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>17</v>
-      </c>
-      <c r="G175" t="s">
-        <v>80</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>82</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>17</v>
-      </c>
-      <c r="G176" t="s">
-        <v>48</v>
-      </c>
-      <c r="H176" t="s"/>
-      <c r="I176" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G176" t="s"/>
+      <c r="H176" t="s">
+        <v>50</v>
+      </c>
+      <c r="I176" t="s"/>
+      <c r="J176" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>17</v>
-      </c>
-      <c r="G177" t="s">
-        <v>80</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>82</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>17</v>
-      </c>
-      <c r="G178" t="s">
-        <v>23</v>
-      </c>
-      <c r="H178" t="s"/>
-      <c r="I178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G178" t="s"/>
+      <c r="H178" t="s">
+        <v>25</v>
+      </c>
+      <c r="I178" t="s"/>
+      <c r="J178" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>17</v>
-      </c>
-      <c r="G179" t="s">
-        <v>80</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>82</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>17</v>
-      </c>
-      <c r="G180" t="s">
-        <v>23</v>
-      </c>
-      <c r="H180" t="s"/>
-      <c r="I180" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G180" t="s"/>
+      <c r="H180" t="s">
+        <v>25</v>
+      </c>
+      <c r="I180" t="s"/>
+      <c r="J180" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>17</v>
-      </c>
-      <c r="G181" t="s">
-        <v>80</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>82</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>17</v>
-      </c>
-      <c r="G182" t="s">
-        <v>27</v>
-      </c>
-      <c r="H182" t="s"/>
-      <c r="I182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G182" t="s"/>
+      <c r="H182" t="s">
+        <v>29</v>
+      </c>
+      <c r="I182" t="s"/>
+      <c r="J182" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>17</v>
-      </c>
-      <c r="G183" t="s">
-        <v>80</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>82</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>17</v>
-      </c>
-      <c r="G184" t="s">
-        <v>48</v>
-      </c>
-      <c r="H184" t="s"/>
-      <c r="I184" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G184" t="s"/>
+      <c r="H184" t="s">
+        <v>50</v>
+      </c>
+      <c r="I184" t="s"/>
+      <c r="J184" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>17</v>
-      </c>
-      <c r="G185" t="s">
-        <v>80</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>82</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>17</v>
-      </c>
-      <c r="G186" t="s">
-        <v>48</v>
-      </c>
-      <c r="H186" t="s"/>
-      <c r="I186" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G186" t="s"/>
+      <c r="H186" t="s">
+        <v>50</v>
+      </c>
+      <c r="I186" t="s"/>
+      <c r="J186" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>17</v>
-      </c>
-      <c r="G187" t="s">
-        <v>48</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>50</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>17</v>
-      </c>
-      <c r="G188" t="s">
-        <v>29</v>
-      </c>
-      <c r="H188" t="s"/>
-      <c r="I188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G188" t="s"/>
+      <c r="H188" t="s">
+        <v>31</v>
+      </c>
+      <c r="I188" t="s"/>
+      <c r="J188" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>17</v>
-      </c>
-      <c r="G189" t="s">
-        <v>29</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>31</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>17</v>
-      </c>
-      <c r="G190" t="s">
-        <v>27</v>
-      </c>
-      <c r="H190" t="s"/>
-      <c r="I190" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G190" t="s"/>
+      <c r="H190" t="s">
+        <v>29</v>
+      </c>
+      <c r="I190" t="s"/>
+      <c r="J190" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>17</v>
-      </c>
-      <c r="G191" t="s">
-        <v>219</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>221</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>17</v>
-      </c>
-      <c r="G192" t="s">
-        <v>23</v>
-      </c>
-      <c r="H192" t="s"/>
-      <c r="I192" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G192" t="s"/>
+      <c r="H192" t="s">
+        <v>25</v>
+      </c>
+      <c r="I192" t="s"/>
+      <c r="J192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>17</v>
-      </c>
-      <c r="G193" t="s">
-        <v>23</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>19</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>25</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G194" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H194" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I194" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J194" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G195" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H195" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I195" t="s">
-        <v>224</v>
+        <v>16</v>
+      </c>
+      <c r="J195" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>
